--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_457.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_457.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32215-d76535-Reviews-Knights_Inn_Claremont-Claremont_California.html</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>98</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Knights-Inn-Claremont.h8286.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_457.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_457.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="307">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,815 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r357212044-Knights_Inn_Claremont-Claremont_California.html</t>
+  </si>
+  <si>
+    <t>32215</t>
+  </si>
+  <si>
+    <t>76535</t>
+  </si>
+  <si>
+    <t>357212044</t>
+  </si>
+  <si>
+    <t>03/21/2016</t>
+  </si>
+  <si>
+    <t>Nice rooms</t>
+  </si>
+  <si>
+    <t>The room was huge. Had microwave and fridge which was not expected. Each room has a patio i thought was nice. Hotel was quiet and we had a nice stay. The room numbers are weird and so was parking but overall it was not bad. I would stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>kinn721, General Manager at Knights Inn Claremont, responded to this reviewResponded April 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 5, 2016</t>
+  </si>
+  <si>
+    <t>The room was huge. Had microwave and fridge which was not expected. Each room has a patio i thought was nice. Hotel was quiet and we had a nice stay. The room numbers are weird and so was parking but overall it was not bad. I would stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r339287078-Knights_Inn_Claremont-Claremont_California.html</t>
+  </si>
+  <si>
+    <t>339287078</t>
+  </si>
+  <si>
+    <t>01/11/2016</t>
+  </si>
+  <si>
+    <t>Getting worse each time</t>
+  </si>
+  <si>
+    <t>We have stayed at this hotel dozens and dozens of times over 30 years under 4 or 5 different owners.   We loved the location.   Sadly, this is the last time ... it is just getting worse each visit.  This hotel really needs to get an owner that is ready to bring it back to a quality stay.   Washing machines were out of order, WiFi worked only if they rebooted the router (had to ask them every day), really old smelly carpet in the halls, door locks worked off and on, free continental breakfast was easily the worst we have seen anywhere anytime.  They failed to service the room on 1 of our 3 nights.  Attempts to get help from the front desk went no where as the desk was unmanned frequently.  They have no elevator for the 2nd floor.  Attempts to give them some feed back got the "I will tell the manager" response.   Side comment... there is an excellent restaurant with fabulous breakfasts right next to the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>kinn721, General Manager at Knights Inn Claremont, responded to this reviewResponded January 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 12, 2016</t>
+  </si>
+  <si>
+    <t>We have stayed at this hotel dozens and dozens of times over 30 years under 4 or 5 different owners.   We loved the location.   Sadly, this is the last time ... it is just getting worse each visit.  This hotel really needs to get an owner that is ready to bring it back to a quality stay.   Washing machines were out of order, WiFi worked only if they rebooted the router (had to ask them every day), really old smelly carpet in the halls, door locks worked off and on, free continental breakfast was easily the worst we have seen anywhere anytime.  They failed to service the room on 1 of our 3 nights.  Attempts to get help from the front desk went no where as the desk was unmanned frequently.  They have no elevator for the 2nd floor.  Attempts to give them some feed back got the "I will tell the manager" response.   Side comment... there is an excellent restaurant with fabulous breakfasts right next to the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r333643842-Knights_Inn_Claremont-Claremont_California.html</t>
+  </si>
+  <si>
+    <t>333643842</t>
+  </si>
+  <si>
+    <t>12/18/2015</t>
+  </si>
+  <si>
+    <t>Owned By Wyndham</t>
+  </si>
+  <si>
+    <t>For this Hotel Chain to be owned and Operated by Wyndham International Resort...there is definitely an issue! Small rooms, uncomfortable beds, handful of boring channels are just a few perks received when spending the evening. Watch out Norman Bates!!</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r274509414-Knights_Inn_Claremont-Claremont_California.html</t>
+  </si>
+  <si>
+    <t>274509414</t>
+  </si>
+  <si>
+    <t>05/25/2015</t>
+  </si>
+  <si>
+    <t>Right by the freeway, but good for the price.</t>
+  </si>
+  <si>
+    <t>I was there for a reunion at the 5 colleges. I read that this was right by the freeway so I brought earplugs and a white noise maker-- and with these I slept well (I'm a light sleeper).  The rooms with one bed are on the side of the building facing the freeway while the rooms with two beds are on the opposite side of the building from the freeway and face the pool. I didn't use it but the pool seemed small but nice. The room was quite clean with nice sheets, but worn if that bothers you (stained grout in the bathroom, a hole in the rug, and the decor was dated). They were working on improving some of the rooms on the pool side while I was there, so this may improve. The staff at the  front desk were very nice and helpful. There is a gas station convenience store right next door and a small fridge in the room.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I was there for a reunion at the 5 colleges. I read that this was right by the freeway so I brought earplugs and a white noise maker-- and with these I slept well (I'm a light sleeper).  The rooms with one bed are on the side of the building facing the freeway while the rooms with two beds are on the opposite side of the building from the freeway and face the pool. I didn't use it but the pool seemed small but nice. The room was quite clean with nice sheets, but worn if that bothers you (stained grout in the bathroom, a hole in the rug, and the decor was dated). They were working on improving some of the rooms on the pool side while I was there, so this may improve. The staff at the  front desk were very nice and helpful. There is a gas station convenience store right next door and a small fridge in the room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r243579588-Knights_Inn_Claremont-Claremont_California.html</t>
+  </si>
+  <si>
+    <t>243579588</t>
+  </si>
+  <si>
+    <t>12/08/2014</t>
+  </si>
+  <si>
+    <t>Overall our stay was OK.  We specifically booked this hotel...</t>
+  </si>
+  <si>
+    <t>Overall our stay was OK.  We specifically booked this hotel for the pool, but was unable to use it due to the 200 or more worms floating on the bottom of the pool.  I also needed WiFi for work, but was unable to connect the whole time.  I called the office and they said they would re-set the modem, but it did not work.  Their replay was "I already re-booted the modem.  There is nothing more I can do."  The two things I was looking for was unusable.The continental breakfast was nice.  It had just a few items, but that's all we needed.  Also we were woken up at 5:30am by the people above us, stomping so loud for two hours.    MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Overall our stay was OK.  We specifically booked this hotel for the pool, but was unable to use it due to the 200 or more worms floating on the bottom of the pool.  I also needed WiFi for work, but was unable to connect the whole time.  I called the office and they said they would re-set the modem, but it did not work.  Their replay was "I already re-booted the modem.  There is nothing more I can do."  The two things I was looking for was unusable.The continental breakfast was nice.  It had just a few items, but that's all we needed.  Also we were woken up at 5:30am by the people above us, stomping so loud for two hours.    More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r240896913-Knights_Inn_Claremont-Claremont_California.html</t>
+  </si>
+  <si>
+    <t>240896913</t>
+  </si>
+  <si>
+    <t>11/21/2014</t>
+  </si>
+  <si>
+    <t>mediocre accomidations</t>
+  </si>
+  <si>
+    <t>When calling to check rates I was told there were plenty of rooms, called the next day to reserve and was told only 1 smoking room was available. Arrived to find they had a non-smoking room, whew relief. Walked into the room found a sticky (soda?) spot in the middle of the entry. Couldn't find a remote for the TV, was stuck watching one of 6-8 in english channels. Walls are thin so the next door decided to argue with spouse at 2 a.m. (not property's fault). Wake up to use toilet, find out it doesn't flush argh! checked out and left, not likely to return.</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r227785872-Knights_Inn_Claremont-Claremont_California.html</t>
+  </si>
+  <si>
+    <t>227785872</t>
+  </si>
+  <si>
+    <t>09/08/2014</t>
+  </si>
+  <si>
+    <t>Shower hot water was not really hot. TV picture was not...</t>
+  </si>
+  <si>
+    <t>Shower hot water was not really hot. TV picture was not clear. Did not get fixed. Poor quality TV. Space in bathroom was not enough. Auto shut off lights is not helpful.</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r226974639-Knights_Inn_Claremont-Claremont_California.html</t>
+  </si>
+  <si>
+    <t>226974639</t>
+  </si>
+  <si>
+    <t>09/04/2014</t>
+  </si>
+  <si>
+    <t>Disappointing</t>
+  </si>
+  <si>
+    <t>Terrible stay.  We were there for two nights while our home had some construction being done.  Bathroom facilities did not work properly.  They brought us a plunger.  There was mold on the shower wall.  Bedding did not fit the bed properly, too short for a king bed.  Fan switch in bathroom was missing and fan did not work.  There was arguing and fighting going on in the room next to ours.  I filed a complaint with their main office and were refunded a minimal amount of our charges.  Hallways smelled stale and musky.</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r225377641-Knights_Inn_Claremont-Claremont_California.html</t>
+  </si>
+  <si>
+    <t>225377641</t>
+  </si>
+  <si>
+    <t>08/29/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r207700534-Knights_Inn_Claremont-Claremont_California.html</t>
+  </si>
+  <si>
+    <t>207700534</t>
+  </si>
+  <si>
+    <t>05/28/2014</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r207562070-Knights_Inn_Claremont-Claremont_California.html</t>
+  </si>
+  <si>
+    <t>207562070</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r205602591-Knights_Inn_Claremont-Claremont_California.html</t>
+  </si>
+  <si>
+    <t>205602591</t>
+  </si>
+  <si>
+    <t>05/14/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r201592484-Knights_Inn_Claremont-Claremont_California.html</t>
+  </si>
+  <si>
+    <t>201592484</t>
+  </si>
+  <si>
+    <t>04/17/2014</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r199567886-Knights_Inn_Claremont-Claremont_California.html</t>
+  </si>
+  <si>
+    <t>199567886</t>
+  </si>
+  <si>
+    <t>04/01/2014</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r197337648-Knights_Inn_Claremont-Claremont_California.html</t>
+  </si>
+  <si>
+    <t>197337648</t>
+  </si>
+  <si>
+    <t>03/13/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r192461529-Knights_Inn_Claremont-Claremont_California.html</t>
+  </si>
+  <si>
+    <t>192461529</t>
+  </si>
+  <si>
+    <t>01/29/2014</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r192383825-Knights_Inn_Claremont-Claremont_California.html</t>
+  </si>
+  <si>
+    <t>192383825</t>
+  </si>
+  <si>
+    <t>01/28/2014</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r192380092-Knights_Inn_Claremont-Claremont_California.html</t>
+  </si>
+  <si>
+    <t>192380092</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r189485591-Knights_Inn_Claremont-Claremont_California.html</t>
+  </si>
+  <si>
+    <t>189485591</t>
+  </si>
+  <si>
+    <t>01/03/2014</t>
+  </si>
+  <si>
+    <t>You get what you pay for not what you see!</t>
+  </si>
+  <si>
+    <t>This hotel is deceiving from the pictures. Beds were comfortable, but didn't have fitted sheets, just 2 sheets laid on top of one another. TV didn't work half the time, toilet refilled with water only every few hours so you couldn't flush. Close to expressway for easy access and only a $5 cab ride to Claremont Village which is great for restaurants and bars</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r189481209-Knights_Inn_Claremont-Claremont_California.html</t>
+  </si>
+  <si>
+    <t>189481209</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r189157157-Knights_Inn_Claremont-Claremont_California.html</t>
+  </si>
+  <si>
+    <t>189157157</t>
+  </si>
+  <si>
+    <t>12/31/2013</t>
+  </si>
+  <si>
+    <t>Not bad.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the hotel is old. even the dridge in my room is old. they should separate smoking from non smoking rooms. the hallway in the first entrance reeks of smoke. if the freeway noise don't bother you, it's a decend inn. it's close tho stripe mall, restaurants, fast food joints, and convenience stores. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r184611645-Knights_Inn_Claremont-Claremont_California.html</t>
+  </si>
+  <si>
+    <t>184611645</t>
+  </si>
+  <si>
+    <t>11/13/2013</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r184527393-Knights_Inn_Claremont-Claremont_California.html</t>
+  </si>
+  <si>
+    <t>184527393</t>
+  </si>
+  <si>
+    <t>11/12/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r180461697-Knights_Inn_Claremont-Claremont_California.html</t>
+  </si>
+  <si>
+    <t>180461697</t>
+  </si>
+  <si>
+    <t>10/10/2013</t>
+  </si>
+  <si>
+    <t>Weekend get-away</t>
+  </si>
+  <si>
+    <t>I had a few days off and wanted to visit my daughter at Scripps College. This hotel was only 1 1/2 miles away, so seemed a likely choice. Upon entering the hallway, you realize this hotel is very old and is in dire need of an update. I got a king room facing the highway and was afraid it would be too noisy, but it was okay. For what I paid ($52p/n), it was well worth it. Keep in mind that this is not a 5 star hotel. The rooms were adequate and beds very comfortable. There is even a free breakfast (hard boil eggs, packaged pastries, bagels, cold cereals, oatmeal). They even had complimentary newspapers. The people at the front desk was always very pleasant and helpful. If you only need a place to crash for a few days, this place is not bad.MoreShow less</t>
+  </si>
+  <si>
+    <t>I had a few days off and wanted to visit my daughter at Scripps College. This hotel was only 1 1/2 miles away, so seemed a likely choice. Upon entering the hallway, you realize this hotel is very old and is in dire need of an update. I got a king room facing the highway and was afraid it would be too noisy, but it was okay. For what I paid ($52p/n), it was well worth it. Keep in mind that this is not a 5 star hotel. The rooms were adequate and beds very comfortable. There is even a free breakfast (hard boil eggs, packaged pastries, bagels, cold cereals, oatmeal). They even had complimentary newspapers. The people at the front desk was always very pleasant and helpful. If you only need a place to crash for a few days, this place is not bad.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r177297770-Knights_Inn_Claremont-Claremont_California.html</t>
+  </si>
+  <si>
+    <t>177297770</t>
+  </si>
+  <si>
+    <t>09/15/2013</t>
+  </si>
+  <si>
+    <t>Budget friendly hotel</t>
+  </si>
+  <si>
+    <t>At first glance wasn't sure about this place, but it's okay for a few days. I didn't find it noisy from the highway traffic as some reviews said . I had no problem sleeping, and the breakfast was okay. They have cereal, oatmeal, hard boiled eggs, bagels, prepackaged muffins, prepackaged danish, juice, coffee and tea, and bananas and apples Nice little pool in the back which we had to ourselves, and the internet works very well. Also if you book online you can get 3 nights and 20% off , not a bad deal. Budget friendly, since you're not spending all your time in the hotel</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r176127520-Knights_Inn_Claremont-Claremont_California.html</t>
+  </si>
+  <si>
+    <t>176127520</t>
+  </si>
+  <si>
+    <t>09/06/2013</t>
+  </si>
+  <si>
+    <t>stay outside town</t>
+  </si>
+  <si>
+    <t>I have never written a review before, but I am livid. I stayed here to be closer to family. This place is awful. Arrive at about 8:30PM on a very hot day (it hit 105 and at 9:00 at night is still 85 degrees out) and the T.V. is blaring in the lobby with a Chinese station. The lady at check-in was very abrupt and barely spoke English. She says is the 2nd floor okay, I ask if there is an elevator, she doesn't respond. Says something about taking the first or second entrance, but doesn't say where those entrances are. Walk into the hallway to get to room and it is extremely hot. I get to my room and it was probably at least 100 degrees in there. I wanted to put some leftovers in the refrigerator, but the door was left wide open. I close the door and wait. Nothing seems to be happening after 20 minutes. I call down and the lady at the front desk rudely tells me that I have to flip the switch???? I ask her how and again very abruptly she tells me there is a lever (it is a dial) on the back of the refrigerator.  There also is no clock in the room. The toilet wouldn't flush, I had to call the desk to get it fixed. The T.V. remote didn't work, the guy had to program it.  The T.V. doesn't...I have never written a review before, but I am livid. I stayed here to be closer to family. This place is awful. Arrive at about 8:30PM on a very hot day (it hit 105 and at 9:00 at night is still 85 degrees out) and the T.V. is blaring in the lobby with a Chinese station. The lady at check-in was very abrupt and barely spoke English. She says is the 2nd floor okay, I ask if there is an elevator, she doesn't respond. Says something about taking the first or second entrance, but doesn't say where those entrances are. Walk into the hallway to get to room and it is extremely hot. I get to my room and it was probably at least 100 degrees in there. I wanted to put some leftovers in the refrigerator, but the door was left wide open. I close the door and wait. Nothing seems to be happening after 20 minutes. I call down and the lady at the front desk rudely tells me that I have to flip the switch???? I ask her how and again very abruptly she tells me there is a lever (it is a dial) on the back of the refrigerator.  There also is no clock in the room. The toilet wouldn't flush, I had to call the desk to get it fixed. The T.V. remote didn't work, the guy had to program it.  The T.V. doesn't have a clear picture. I won't shower as the tub looks like it has mold in it. This place was a lot cheaper than the Doubletree and I figured based on the reviews it wouldn't be bad for one night. I stay near Disneyland frequently and have paid less than this for a lot more. I think there are other motels that are not too far about the same price-I would stay there or even as far away as Anaheim before I stayed here again!  The maintenance guy seemed okay.This is based on being here for about an hour.MoreShow less</t>
+  </si>
+  <si>
+    <t>I have never written a review before, but I am livid. I stayed here to be closer to family. This place is awful. Arrive at about 8:30PM on a very hot day (it hit 105 and at 9:00 at night is still 85 degrees out) and the T.V. is blaring in the lobby with a Chinese station. The lady at check-in was very abrupt and barely spoke English. She says is the 2nd floor okay, I ask if there is an elevator, she doesn't respond. Says something about taking the first or second entrance, but doesn't say where those entrances are. Walk into the hallway to get to room and it is extremely hot. I get to my room and it was probably at least 100 degrees in there. I wanted to put some leftovers in the refrigerator, but the door was left wide open. I close the door and wait. Nothing seems to be happening after 20 minutes. I call down and the lady at the front desk rudely tells me that I have to flip the switch???? I ask her how and again very abruptly she tells me there is a lever (it is a dial) on the back of the refrigerator.  There also is no clock in the room. The toilet wouldn't flush, I had to call the desk to get it fixed. The T.V. remote didn't work, the guy had to program it.  The T.V. doesn't...I have never written a review before, but I am livid. I stayed here to be closer to family. This place is awful. Arrive at about 8:30PM on a very hot day (it hit 105 and at 9:00 at night is still 85 degrees out) and the T.V. is blaring in the lobby with a Chinese station. The lady at check-in was very abrupt and barely spoke English. She says is the 2nd floor okay, I ask if there is an elevator, she doesn't respond. Says something about taking the first or second entrance, but doesn't say where those entrances are. Walk into the hallway to get to room and it is extremely hot. I get to my room and it was probably at least 100 degrees in there. I wanted to put some leftovers in the refrigerator, but the door was left wide open. I close the door and wait. Nothing seems to be happening after 20 minutes. I call down and the lady at the front desk rudely tells me that I have to flip the switch???? I ask her how and again very abruptly she tells me there is a lever (it is a dial) on the back of the refrigerator.  There also is no clock in the room. The toilet wouldn't flush, I had to call the desk to get it fixed. The T.V. remote didn't work, the guy had to program it.  The T.V. doesn't have a clear picture. I won't shower as the tub looks like it has mold in it. This place was a lot cheaper than the Doubletree and I figured based on the reviews it wouldn't be bad for one night. I stay near Disneyland frequently and have paid less than this for a lot more. I think there are other motels that are not too far about the same price-I would stay there or even as far away as Anaheim before I stayed here again!  The maintenance guy seemed okay.This is based on being here for about an hour.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r175577628-Knights_Inn_Claremont-Claremont_California.html</t>
+  </si>
+  <si>
+    <t>175577628</t>
+  </si>
+  <si>
+    <t>09/03/2013</t>
+  </si>
+  <si>
+    <t>get what you pay for I guess</t>
+  </si>
+  <si>
+    <t>So I should have know that if the rate was that cheap there was a good reason. Checking into the hotel was interesting as the front desk gal barily spoke English and basically argued with me that I had already checked? Then we get to our room and the fridge was blocking the door to the adjoining room of which we were next to friends and couldn't open the door. The bathroom was the worst towels had hair on them and floors were so dirty and there was a part of the wall coming off the side of the bath tub. The tv remote didn't work and the lights were motion sensor so they would turn off while in the room and you had to find your way over to the light next to the door to turn it back on for some reason.MoreShow less</t>
+  </si>
+  <si>
+    <t>So I should have know that if the rate was that cheap there was a good reason. Checking into the hotel was interesting as the front desk gal barily spoke English and basically argued with me that I had already checked? Then we get to our room and the fridge was blocking the door to the adjoining room of which we were next to friends and couldn't open the door. The bathroom was the worst towels had hair on them and floors were so dirty and there was a part of the wall coming off the side of the bath tub. The tv remote didn't work and the lights were motion sensor so they would turn off while in the room and you had to find your way over to the light next to the door to turn it back on for some reason.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r167342906-Knights_Inn_Claremont-Claremont_California.html</t>
+  </si>
+  <si>
+    <t>167342906</t>
+  </si>
+  <si>
+    <t>07/12/2013</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r166966940-Knights_Inn_Claremont-Claremont_California.html</t>
+  </si>
+  <si>
+    <t>166966940</t>
+  </si>
+  <si>
+    <t>07/09/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r166467386-Knights_Inn_Claremont-Claremont_California.html</t>
+  </si>
+  <si>
+    <t>166467386</t>
+  </si>
+  <si>
+    <t>07/05/2013</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r160279277-Knights_Inn_Claremont-Claremont_California.html</t>
+  </si>
+  <si>
+    <t>160279277</t>
+  </si>
+  <si>
+    <t>05/10/2013</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r158973059-Knights_Inn_Claremont-Claremont_California.html</t>
+  </si>
+  <si>
+    <t>158973059</t>
+  </si>
+  <si>
+    <t>04/27/2013</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r157224759-Knights_Inn_Claremont-Claremont_California.html</t>
+  </si>
+  <si>
+    <t>157224759</t>
+  </si>
+  <si>
+    <t>04/09/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r155763145-Knights_Inn_Claremont-Claremont_California.html</t>
+  </si>
+  <si>
+    <t>155763145</t>
+  </si>
+  <si>
+    <t>03/26/2013</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r154709138-Knights_Inn_Claremont-Claremont_California.html</t>
+  </si>
+  <si>
+    <t>154709138</t>
+  </si>
+  <si>
+    <t>03/15/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r154363915-Knights_Inn_Claremont-Claremont_California.html</t>
+  </si>
+  <si>
+    <t>154363915</t>
+  </si>
+  <si>
+    <t>03/12/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r151090621-Knights_Inn_Claremont-Claremont_California.html</t>
+  </si>
+  <si>
+    <t>151090621</t>
+  </si>
+  <si>
+    <t>01/31/2013</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r150858387-Knights_Inn_Claremont-Claremont_California.html</t>
+  </si>
+  <si>
+    <t>150858387</t>
+  </si>
+  <si>
+    <t>01/28/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r150684515-Knights_Inn_Claremont-Claremont_California.html</t>
+  </si>
+  <si>
+    <t>150684515</t>
+  </si>
+  <si>
+    <t>01/26/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r145352121-Knights_Inn_Claremont-Claremont_California.html</t>
+  </si>
+  <si>
+    <t>145352121</t>
+  </si>
+  <si>
+    <t>11/13/2012</t>
+  </si>
+  <si>
+    <t>Vacation</t>
+  </si>
+  <si>
+    <t>Friendly staff, room and hotel were clean.  Breakfast area was small and cramped, but they stocked it constantly so no shortage of food.  Fresh fruit, hard boiled eggs, oatmeal, individual packaged pastries, coffee, cereal &amp; milk, and juices.  Our room had a refrigerator which I was not expecting, a full sized iron board.  Some of the lights in the room did not work.  When we tried to use the heater, a metallic smell spread through room so we turned it off and were fine with blankets.  Didn't bother to call and ask about it or to have it fixed since it was only a little chilly, so no comment as to how it would have been resolved.  Very close to freeway, and did not hear it in room.  MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>Friendly staff, room and hotel were clean.  Breakfast area was small and cramped, but they stocked it constantly so no shortage of food.  Fresh fruit, hard boiled eggs, oatmeal, individual packaged pastries, coffee, cereal &amp; milk, and juices.  Our room had a refrigerator which I was not expecting, a full sized iron board.  Some of the lights in the room did not work.  When we tried to use the heater, a metallic smell spread through room so we turned it off and were fine with blankets.  Didn't bother to call and ask about it or to have it fixed since it was only a little chilly, so no comment as to how it would have been resolved.  Very close to freeway, and did not hear it in room.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r144134366-Knights_Inn_Claremont-Claremont_California.html</t>
+  </si>
+  <si>
+    <t>144134366</t>
+  </si>
+  <si>
+    <t>10/31/2012</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r144024505-Knights_Inn_Claremont-Claremont_California.html</t>
+  </si>
+  <si>
+    <t>144024505</t>
+  </si>
+  <si>
+    <t>10/29/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r143205589-Knights_Inn_Claremont-Claremont_California.html</t>
+  </si>
+  <si>
+    <t>143205589</t>
+  </si>
+  <si>
+    <t>10/19/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r142521460-Knights_Inn_Claremont-Claremont_California.html</t>
+  </si>
+  <si>
+    <t>142521460</t>
+  </si>
+  <si>
+    <t>10/10/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r142444747-Knights_Inn_Claremont-Claremont_California.html</t>
+  </si>
+  <si>
+    <t>142444747</t>
+  </si>
+  <si>
+    <t>10/09/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r141011802-Knights_Inn_Claremont-Claremont_California.html</t>
+  </si>
+  <si>
+    <t>141011802</t>
+  </si>
+  <si>
+    <t>09/23/2012</t>
+  </si>
+  <si>
+    <t>one night</t>
+  </si>
+  <si>
+    <t>I only stayed overnight--I did not use any services and did not eat breakfast there. The room was comfortable and the location very convenient for my stay.</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r140730816-Knights_Inn_Claremont-Claremont_California.html</t>
+  </si>
+  <si>
+    <t>140730816</t>
+  </si>
+  <si>
+    <t>09/19/2012</t>
+  </si>
+  <si>
+    <t>Coffee maker not working.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not only did the coffee maker not brew coffee, but the shower's hot water would not turn off.  I hope we not encounter any problems when we stay there on Sept. 28, 2012.   </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r140546145-Knights_Inn_Claremont-Claremont_California.html</t>
+  </si>
+  <si>
+    <t>140546145</t>
+  </si>
+  <si>
+    <t>09/17/2012</t>
+  </si>
+  <si>
+    <t>First time at HoJo</t>
+  </si>
+  <si>
+    <t>While the price was right and in general the room was clean, this Howard Johnson needs a bit of updating and attention to details. There was a chain lock on the balcony door that was broken, as well as a broken drawer. The bathtub  had seen better days giving it a dirty appearance and there was a hair in it. The TV had extremely poor reception  on local channels obviously not cable or satellite. Also, there were several bulbs out in the lamps and lastly, ONLY ONE ELECTRICAL OUTLET FOR GUEST USE!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r92839547-Knights_Inn_Claremont-Claremont_California.html</t>
+  </si>
+  <si>
+    <t>92839547</t>
+  </si>
+  <si>
+    <t>01/13/2011</t>
+  </si>
+  <si>
+    <t>Not 5 star but a good place to sleep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have stayed here at least 15 times. Many restaurants near by, right off the 10 freeway, and easy to park. Rooms all have a comfortable chair, and showers have good pressure. Old decor, not fancy, functional and clean. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r76382205-Knights_Inn_Claremont-Claremont_California.html</t>
+  </si>
+  <si>
+    <t>76382205</t>
+  </si>
+  <si>
+    <t>08/22/2010</t>
+  </si>
+  <si>
+    <t>DO NOT BOOK THIS HOTEL</t>
+  </si>
+  <si>
+    <t>This is a poorly kept hotel.  I am surprised that the Howard Johnson franchise has not insisted on the owners to do some maintenance.
+1.  The phone will not be turned on unless you leave a $20.00 deposit.
+2.  There is virtually no hot water.  They are trying to conserve their bills.  Even after complaining about the temperature of the water, the "Manager" said he would turn up the boiler, but it wasn't done.
+3.  The room is dirty...They have not taken the time to vacuum behind the bed and when I pulled out the bed to plug in my phone charger I found all sorts of New Years Eve confetti
+4.  The security bar on the door is loose and the the handle to the sliding glass doors fell off.
+5.  There was a car parked outside my room and the car alarm went off all night and when I asked to be moved to the other side of the hotel, I was told it would be another $10.00 per night!!!!
+6.  The reception area is disgusting... plain and simple.  It does not look like the photos online which is now obvious that it was staged for the internet.
+7.  The bathroom was disgusting.
+8.  I check out and found another hotel for the rest of my stay.
+DO NOT BOOK THIS HOTEL... .. YOU WILL REGRET IT!
+I understand that I was looking for a cheaper hotel in...This is a poorly kept hotel.  I am surprised that the Howard Johnson franchise has not insisted on the owners to do some maintenance.1.  The phone will not be turned on unless you leave a $20.00 deposit.2.  There is virtually no hot water.  They are trying to conserve their bills.  Even after complaining about the temperature of the water, the "Manager" said he would turn up the boiler, but it wasn't done.3.  The room is dirty...They have not taken the time to vacuum behind the bed and when I pulled out the bed to plug in my phone charger I found all sorts of New Years Eve confetti4.  The security bar on the door is loose and the the handle to the sliding glass doors fell off.5.  There was a car parked outside my room and the car alarm went off all night and when I asked to be moved to the other side of the hotel, I was told it would be another $10.00 per night!!!!6.  The reception area is disgusting... plain and simple.  It does not look like the photos online which is now obvious that it was staged for the internet.7.  The bathroom was disgusting.8.  I check out and found another hotel for the rest of my stay.DO NOT BOOK THIS HOTEL... .. YOU WILL REGRET IT!I understand that I was looking for a cheaper hotel in the area, but this hotel needs to be completely renovated if they want to maintain the standards of a Howard Johnson Hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>This is a poorly kept hotel.  I am surprised that the Howard Johnson franchise has not insisted on the owners to do some maintenance.
+1.  The phone will not be turned on unless you leave a $20.00 deposit.
+2.  There is virtually no hot water.  They are trying to conserve their bills.  Even after complaining about the temperature of the water, the "Manager" said he would turn up the boiler, but it wasn't done.
+3.  The room is dirty...They have not taken the time to vacuum behind the bed and when I pulled out the bed to plug in my phone charger I found all sorts of New Years Eve confetti
+4.  The security bar on the door is loose and the the handle to the sliding glass doors fell off.
+5.  There was a car parked outside my room and the car alarm went off all night and when I asked to be moved to the other side of the hotel, I was told it would be another $10.00 per night!!!!
+6.  The reception area is disgusting... plain and simple.  It does not look like the photos online which is now obvious that it was staged for the internet.
+7.  The bathroom was disgusting.
+8.  I check out and found another hotel for the rest of my stay.
+DO NOT BOOK THIS HOTEL... .. YOU WILL REGRET IT!
+I understand that I was looking for a cheaper hotel in...This is a poorly kept hotel.  I am surprised that the Howard Johnson franchise has not insisted on the owners to do some maintenance.1.  The phone will not be turned on unless you leave a $20.00 deposit.2.  There is virtually no hot water.  They are trying to conserve their bills.  Even after complaining about the temperature of the water, the "Manager" said he would turn up the boiler, but it wasn't done.3.  The room is dirty...They have not taken the time to vacuum behind the bed and when I pulled out the bed to plug in my phone charger I found all sorts of New Years Eve confetti4.  The security bar on the door is loose and the the handle to the sliding glass doors fell off.5.  There was a car parked outside my room and the car alarm went off all night and when I asked to be moved to the other side of the hotel, I was told it would be another $10.00 per night!!!!6.  The reception area is disgusting... plain and simple.  It does not look like the photos online which is now obvious that it was staged for the internet.7.  The bathroom was disgusting.8.  I check out and found another hotel for the rest of my stay.DO NOT BOOK THIS HOTEL... .. YOU WILL REGRET IT!I understand that I was looking for a cheaper hotel in the area, but this hotel needs to be completely renovated if they want to maintain the standards of a Howard Johnson Hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r63434154-Knights_Inn_Claremont-Claremont_California.html</t>
+  </si>
+  <si>
+    <t>63434154</t>
+  </si>
+  <si>
+    <t>05/06/2010</t>
+  </si>
+  <si>
+    <t>Forget about walking to Campus - stay further south</t>
+  </si>
+  <si>
+    <t>Hotels are scarce in Claremont and I decided to give this one a try because I'm a city dweller who, on his return to the alma mater for a reunion, wanted to recreate the good old days of not traveling to campus via car.It's not so much that it's physically impossible to walk to the Claremont Colleges from this place as that it's highly unlikely you'll even want to do it. Therefore you are taking a place located less than 100 feet from the San Bernadino Freeway, unremodeled since the 60's or 70's with all of the requisite spots, grime, garishness, squeaks and groans. My neighbors were partiers which was no big deal, but it would bother someone who needs absolute quiet before 2 am or so.Upsides? The people running it seem nice enough and were willing to move my room from one facing I-10 to one on the interior side for $10 extra a night. Parking is easy and there is a gas station mini-mart right outside. And the price is obviously quite inexpensive - but there are inexpensive hotels on down in Pomona which my friends seemed more pleased with, so treat yourself to one of those instead and drive the extra 5 minutes or so.Also - free wifi.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2010</t>
+  </si>
+  <si>
+    <t>Hotels are scarce in Claremont and I decided to give this one a try because I'm a city dweller who, on his return to the alma mater for a reunion, wanted to recreate the good old days of not traveling to campus via car.It's not so much that it's physically impossible to walk to the Claremont Colleges from this place as that it's highly unlikely you'll even want to do it. Therefore you are taking a place located less than 100 feet from the San Bernadino Freeway, unremodeled since the 60's or 70's with all of the requisite spots, grime, garishness, squeaks and groans. My neighbors were partiers which was no big deal, but it would bother someone who needs absolute quiet before 2 am or so.Upsides? The people running it seem nice enough and were willing to move my room from one facing I-10 to one on the interior side for $10 extra a night. Parking is easy and there is a gas station mini-mart right outside. And the price is obviously quite inexpensive - but there are inexpensive hotels on down in Pomona which my friends seemed more pleased with, so treat yourself to one of those instead and drive the extra 5 minutes or so.Also - free wifi.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r13993282-Knights_Inn_Claremont-Claremont_California.html</t>
+  </si>
+  <si>
+    <t>13993282</t>
+  </si>
+  <si>
+    <t>03/02/2008</t>
+  </si>
+  <si>
+    <t>MIxed</t>
+  </si>
+  <si>
+    <t>I stayed at this HoJos in late Feb 2008, and it was a very mixed experience.   It is only about 100 yards off of I-10, and the constant traffic is very noisy.   The rooms with one king bed are all on that side, so be prepared.  If you must have the king bed, ask for a room on the far West end-there is at least a wall between those rooms and the interstate, which cuts down the noise somewhat.  The rooms on the other side of the hotel are much quieter, but have 2 double beds and cost $10/night more.   This place has seen better days, and I think has had a lot of rough experiences with people staying there.  When you check in, they immediately debit your card, I presume so they get paid if you skip out.   There are signs in the small lobby warning, "NO GUESTS", "NO PARTIES-IF YOU ARE TOLD TO LEAVE, NO REFUND", so I guess they have had problems with rowdy folks.   The physical facilities are in sad shape-peeling paint, some holes in some walls, dingy hallways, stained carpet.   There was a single torchier type lamp in the bedroom, which lamp had been knocked about quite a bit, as it was bent in the middle, and the bottom was held together with mailing tape.   The hangers not only were the kind that didn't have a hook to discourage theft, but were also permanently attached...I stayed at this HoJos in late Feb 2008, and it was a very mixed experience.   It is only about 100 yards off of I-10, and the constant traffic is very noisy.   The rooms with one king bed are all on that side, so be prepared.  If you must have the king bed, ask for a room on the far West end-there is at least a wall between those rooms and the interstate, which cuts down the noise somewhat.  The rooms on the other side of the hotel are much quieter, but have 2 double beds and cost $10/night more.   This place has seen better days, and I think has had a lot of rough experiences with people staying there.  When you check in, they immediately debit your card, I presume so they get paid if you skip out.   There are signs in the small lobby warning, "NO GUESTS", "NO PARTIES-IF YOU ARE TOLD TO LEAVE, NO REFUND", so I guess they have had problems with rowdy folks.   The physical facilities are in sad shape-peeling paint, some holes in some walls, dingy hallways, stained carpet.   There was a single torchier type lamp in the bedroom, which lamp had been knocked about quite a bit, as it was bent in the middle, and the bottom was held together with mailing tape.   The hangers not only were the kind that didn't have a hook to discourage theft, but were also permanently attached to the rod so you couldn't even take them off the rod.  If you wanted to make a phone call, you had to put in a $20 deposit, so perhaps some people had skipped out on the phone bills.  The continental breakfast was coffee, tea, OJ, some dry cereal, and some cellophane packaged muffins.   On the other hand,  there was a small refrigerator in the room, which was nice.  And the staff, while not overly friendly, was ok.  The people next door to me were carousing loudly until well after 11 one night.  Mindful for the "No Parties" sign in the lobby, I called the front desk to complain, and within a couple of minutes, there was a loud knock on the door of the party room, and the noise stopped.   And the overall cost ($69 for noisy king bed or $79 for quieter doubles) was 1/2 to 1/3 the cost of other places nearby.   So, as somebody else said, this place is bearable for a night or two, as long as your expectations are not high.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2008</t>
+  </si>
+  <si>
+    <t>I stayed at this HoJos in late Feb 2008, and it was a very mixed experience.   It is only about 100 yards off of I-10, and the constant traffic is very noisy.   The rooms with one king bed are all on that side, so be prepared.  If you must have the king bed, ask for a room on the far West end-there is at least a wall between those rooms and the interstate, which cuts down the noise somewhat.  The rooms on the other side of the hotel are much quieter, but have 2 double beds and cost $10/night more.   This place has seen better days, and I think has had a lot of rough experiences with people staying there.  When you check in, they immediately debit your card, I presume so they get paid if you skip out.   There are signs in the small lobby warning, "NO GUESTS", "NO PARTIES-IF YOU ARE TOLD TO LEAVE, NO REFUND", so I guess they have had problems with rowdy folks.   The physical facilities are in sad shape-peeling paint, some holes in some walls, dingy hallways, stained carpet.   There was a single torchier type lamp in the bedroom, which lamp had been knocked about quite a bit, as it was bent in the middle, and the bottom was held together with mailing tape.   The hangers not only were the kind that didn't have a hook to discourage theft, but were also permanently attached...I stayed at this HoJos in late Feb 2008, and it was a very mixed experience.   It is only about 100 yards off of I-10, and the constant traffic is very noisy.   The rooms with one king bed are all on that side, so be prepared.  If you must have the king bed, ask for a room on the far West end-there is at least a wall between those rooms and the interstate, which cuts down the noise somewhat.  The rooms on the other side of the hotel are much quieter, but have 2 double beds and cost $10/night more.   This place has seen better days, and I think has had a lot of rough experiences with people staying there.  When you check in, they immediately debit your card, I presume so they get paid if you skip out.   There are signs in the small lobby warning, "NO GUESTS", "NO PARTIES-IF YOU ARE TOLD TO LEAVE, NO REFUND", so I guess they have had problems with rowdy folks.   The physical facilities are in sad shape-peeling paint, some holes in some walls, dingy hallways, stained carpet.   There was a single torchier type lamp in the bedroom, which lamp had been knocked about quite a bit, as it was bent in the middle, and the bottom was held together with mailing tape.   The hangers not only were the kind that didn't have a hook to discourage theft, but were also permanently attached to the rod so you couldn't even take them off the rod.  If you wanted to make a phone call, you had to put in a $20 deposit, so perhaps some people had skipped out on the phone bills.  The continental breakfast was coffee, tea, OJ, some dry cereal, and some cellophane packaged muffins.   On the other hand,  there was a small refrigerator in the room, which was nice.  And the staff, while not overly friendly, was ok.  The people next door to me were carousing loudly until well after 11 one night.  Mindful for the "No Parties" sign in the lobby, I called the front desk to complain, and within a couple of minutes, there was a loud knock on the door of the party room, and the noise stopped.   And the overall cost ($69 for noisy king bed or $79 for quieter doubles) was 1/2 to 1/3 the cost of other places nearby.   So, as somebody else said, this place is bearable for a night or two, as long as your expectations are not high.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r5394967-Knights_Inn_Claremont-Claremont_California.html</t>
+  </si>
+  <si>
+    <t>5394967</t>
+  </si>
+  <si>
+    <t>06/26/2006</t>
+  </si>
+  <si>
+    <t>Worked Out Great in a Pinch</t>
+  </si>
+  <si>
+    <t>I was recently stuck overnight in Claremont on business. I'd stayed at other facilities there that cost more and delivered poorly. I called Howard Johnson's late and found the person on duty to be very friendly and accomodating. When I explained that I was on a stingy per diem, she pleasantly offered a nice discount from the rack rate.The rooms are good-sized standard-issue motel rooms with clean bathrooms plus mini-refrigerators and free high-speed wireless internet. One nice surprise was that, even though my room faced the 10 Freeway, with only a sliding glass door on that side, road noise was very muted and did not interfere with my sleep in any way.Although this facility might not look all new and shiny on the outside, give it a shot if you need an inexpensive but very decent room in Claremont.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2006</t>
+  </si>
+  <si>
+    <t>I was recently stuck overnight in Claremont on business. I'd stayed at other facilities there that cost more and delivered poorly. I called Howard Johnson's late and found the person on duty to be very friendly and accomodating. When I explained that I was on a stingy per diem, she pleasantly offered a nice discount from the rack rate.The rooms are good-sized standard-issue motel rooms with clean bathrooms plus mini-refrigerators and free high-speed wireless internet. One nice surprise was that, even though my room faced the 10 Freeway, with only a sliding glass door on that side, road noise was very muted and did not interfere with my sleep in any way.Although this facility might not look all new and shiny on the outside, give it a shot if you need an inexpensive but very decent room in Claremont.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r4774178-Knights_Inn_Claremont-Claremont_California.html</t>
+  </si>
+  <si>
+    <t>4774178</t>
+  </si>
+  <si>
+    <t>03/29/2006</t>
+  </si>
+  <si>
+    <t>OK for one night.</t>
+  </si>
+  <si>
+    <t>I hadn't stayed at a HoJo's before, but with the limited options in Claremont and seemingly good ratings on websites, I went for it.  Positives: Cheapest stay in town. Clean bathroom; good water pressure and hot water in shower; free wireless internet (local free provider).  Inside rooms (non-freeway side)  are relatively quiet; else, you have the sound wall of the  I-10 (constant roar) at your front door.   Negatives: Long dimly lit interior hallways.    I'm a woman and I felt really uncomfortable walking down the hall alone. Don't recall having had that sensation in a hotel before.   Strong musty smell was pervasive in hallways and rooms.  I realized all my clothes smelled of this mustiness after I arrived home.  Hallways and rooms needed paint or cleaning desperately!  Carpets and curtains need cleaning.  Rooms had dated, rickety laminate furniture.  Mattresses worn, very uncomfortable.  Also, with the 72 hour cancellation policy, you can't change hotels after seeing the place, because you potentially get charged for 2 or 3 nites anyway.   At least that's what I figured after they charged  my whole stay (multiple nites) on my Visa as soon as I arrived.   Wouldn't recommend for stays longer than 1 nite or to anyone for whom atmosphere matters.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2006</t>
+  </si>
+  <si>
+    <t>I hadn't stayed at a HoJo's before, but with the limited options in Claremont and seemingly good ratings on websites, I went for it.  Positives: Cheapest stay in town. Clean bathroom; good water pressure and hot water in shower; free wireless internet (local free provider).  Inside rooms (non-freeway side)  are relatively quiet; else, you have the sound wall of the  I-10 (constant roar) at your front door.   Negatives: Long dimly lit interior hallways.    I'm a woman and I felt really uncomfortable walking down the hall alone. Don't recall having had that sensation in a hotel before.   Strong musty smell was pervasive in hallways and rooms.  I realized all my clothes smelled of this mustiness after I arrived home.  Hallways and rooms needed paint or cleaning desperately!  Carpets and curtains need cleaning.  Rooms had dated, rickety laminate furniture.  Mattresses worn, very uncomfortable.  Also, with the 72 hour cancellation policy, you can't change hotels after seeing the place, because you potentially get charged for 2 or 3 nites anyway.   At least that's what I figured after they charged  my whole stay (multiple nites) on my Visa as soon as I arrived.   Wouldn't recommend for stays longer than 1 nite or to anyone for whom atmosphere matters.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1457,3380 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2884</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2884</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>2</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2884</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" t="s">
+        <v>72</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2884</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" t="s">
+        <v>79</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2884</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>86</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2884</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>93</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2884</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" t="s">
+        <v>96</v>
+      </c>
+      <c r="K8" t="s">
+        <v>97</v>
+      </c>
+      <c r="L8" t="s">
+        <v>98</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>99</v>
+      </c>
+      <c r="O8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>2</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2884</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9" t="s">
+        <v>102</v>
+      </c>
+      <c r="K9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L9" t="s">
+        <v>104</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>105</v>
+      </c>
+      <c r="O9" t="s">
+        <v>72</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>2</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2884</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>107</v>
+      </c>
+      <c r="J10" t="s">
+        <v>108</v>
+      </c>
+      <c r="K10" t="s"/>
+      <c r="L10" t="s"/>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>105</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2884</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>110</v>
+      </c>
+      <c r="J11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K11" t="s"/>
+      <c r="L11" t="s"/>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>112</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2884</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J12" t="s">
+        <v>111</v>
+      </c>
+      <c r="K12" t="s"/>
+      <c r="L12" t="s"/>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>112</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2884</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>116</v>
+      </c>
+      <c r="J13" t="s">
+        <v>117</v>
+      </c>
+      <c r="K13" t="s"/>
+      <c r="L13" t="s"/>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>112</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>2884</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>118</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>119</v>
+      </c>
+      <c r="J14" t="s">
+        <v>120</v>
+      </c>
+      <c r="K14" t="s"/>
+      <c r="L14" t="s"/>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>121</v>
+      </c>
+      <c r="O14" t="s">
+        <v>72</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2884</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>122</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>123</v>
+      </c>
+      <c r="J15" t="s">
+        <v>124</v>
+      </c>
+      <c r="K15" t="s"/>
+      <c r="L15" t="s"/>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>125</v>
+      </c>
+      <c r="O15" t="s">
+        <v>72</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>2884</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>126</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>127</v>
+      </c>
+      <c r="J16" t="s">
+        <v>128</v>
+      </c>
+      <c r="K16" t="s"/>
+      <c r="L16" t="s"/>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>125</v>
+      </c>
+      <c r="O16" t="s">
+        <v>129</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2884</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>130</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>131</v>
+      </c>
+      <c r="J17" t="s">
+        <v>132</v>
+      </c>
+      <c r="K17" t="s"/>
+      <c r="L17" t="s"/>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>133</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>2884</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>134</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>135</v>
+      </c>
+      <c r="J18" t="s">
+        <v>136</v>
+      </c>
+      <c r="K18" t="s"/>
+      <c r="L18" t="s">
+        <v>137</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>133</v>
+      </c>
+      <c r="O18" t="s">
+        <v>72</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>2884</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>139</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>140</v>
+      </c>
+      <c r="J19" t="s">
+        <v>136</v>
+      </c>
+      <c r="K19" t="s"/>
+      <c r="L19" t="s"/>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>133</v>
+      </c>
+      <c r="O19" t="s">
+        <v>129</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>2</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>2884</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>141</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>142</v>
+      </c>
+      <c r="J20" t="s">
+        <v>143</v>
+      </c>
+      <c r="K20" t="s">
+        <v>144</v>
+      </c>
+      <c r="L20" t="s">
+        <v>145</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s"/>
+      <c r="O20" t="s"/>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>2884</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>146</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>147</v>
+      </c>
+      <c r="J21" t="s">
+        <v>143</v>
+      </c>
+      <c r="K21" t="s"/>
+      <c r="L21" t="s"/>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>148</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>2</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2884</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>149</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>150</v>
+      </c>
+      <c r="J22" t="s">
+        <v>151</v>
+      </c>
+      <c r="K22" t="s">
+        <v>152</v>
+      </c>
+      <c r="L22" t="s">
+        <v>153</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>148</v>
+      </c>
+      <c r="O22" t="s">
+        <v>79</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2884</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>154</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>155</v>
+      </c>
+      <c r="J23" t="s">
+        <v>156</v>
+      </c>
+      <c r="K23" t="s"/>
+      <c r="L23" t="s"/>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>157</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2884</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>158</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>159</v>
+      </c>
+      <c r="J24" t="s">
+        <v>160</v>
+      </c>
+      <c r="K24" t="s"/>
+      <c r="L24" t="s"/>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>157</v>
+      </c>
+      <c r="O24" t="s">
+        <v>129</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>4</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2884</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>161</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>162</v>
+      </c>
+      <c r="J25" t="s">
+        <v>163</v>
+      </c>
+      <c r="K25" t="s">
+        <v>164</v>
+      </c>
+      <c r="L25" t="s">
+        <v>165</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s"/>
+      <c r="O25" t="s"/>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2884</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>167</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>168</v>
+      </c>
+      <c r="J26" t="s">
+        <v>169</v>
+      </c>
+      <c r="K26" t="s">
+        <v>170</v>
+      </c>
+      <c r="L26" t="s">
+        <v>171</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>172</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>3</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2884</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>173</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>174</v>
+      </c>
+      <c r="J27" t="s">
+        <v>175</v>
+      </c>
+      <c r="K27" t="s">
+        <v>176</v>
+      </c>
+      <c r="L27" t="s">
+        <v>177</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>172</v>
+      </c>
+      <c r="O27" t="s">
+        <v>79</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>3</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>2</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2884</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>179</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J28" t="s">
+        <v>181</v>
+      </c>
+      <c r="K28" t="s">
+        <v>182</v>
+      </c>
+      <c r="L28" t="s">
+        <v>183</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="s">
+        <v>172</v>
+      </c>
+      <c r="O28" t="s">
+        <v>129</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>2</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2884</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>185</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>186</v>
+      </c>
+      <c r="J29" t="s">
+        <v>187</v>
+      </c>
+      <c r="K29" t="s"/>
+      <c r="L29" t="s"/>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>188</v>
+      </c>
+      <c r="O29" t="s">
+        <v>189</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2884</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>190</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>191</v>
+      </c>
+      <c r="J30" t="s">
+        <v>192</v>
+      </c>
+      <c r="K30" t="s"/>
+      <c r="L30" t="s"/>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>188</v>
+      </c>
+      <c r="O30" t="s">
+        <v>189</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>3</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="n">
+        <v>3</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2884</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>193</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>194</v>
+      </c>
+      <c r="J31" t="s">
+        <v>195</v>
+      </c>
+      <c r="K31" t="s"/>
+      <c r="L31" t="s"/>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="s">
+        <v>196</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>3</v>
+      </c>
+      <c r="R31" t="n">
+        <v>2</v>
+      </c>
+      <c r="S31" t="n">
+        <v>2</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>2884</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>197</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>198</v>
+      </c>
+      <c r="J32" t="s">
+        <v>199</v>
+      </c>
+      <c r="K32" t="s"/>
+      <c r="L32" t="s"/>
+      <c r="M32" t="n">
+        <v>2</v>
+      </c>
+      <c r="N32" t="s">
+        <v>200</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" t="n">
+        <v>2</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>1</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>2884</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>201</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>202</v>
+      </c>
+      <c r="J33" t="s">
+        <v>203</v>
+      </c>
+      <c r="K33" t="s"/>
+      <c r="L33" t="s"/>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>204</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>3</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>4</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>2884</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>205</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>206</v>
+      </c>
+      <c r="J34" t="s">
+        <v>207</v>
+      </c>
+      <c r="K34" t="s"/>
+      <c r="L34" t="s"/>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="s">
+        <v>204</v>
+      </c>
+      <c r="O34" t="s">
+        <v>129</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>3</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="n">
+        <v>3</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>3</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>2884</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>208</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>209</v>
+      </c>
+      <c r="J35" t="s">
+        <v>210</v>
+      </c>
+      <c r="K35" t="s"/>
+      <c r="L35" t="s"/>
+      <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="s">
+        <v>211</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" t="n">
+        <v>2</v>
+      </c>
+      <c r="S35" t="n">
+        <v>2</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>2884</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>212</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>213</v>
+      </c>
+      <c r="J36" t="s">
+        <v>214</v>
+      </c>
+      <c r="K36" t="s"/>
+      <c r="L36" t="s"/>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>211</v>
+      </c>
+      <c r="O36" t="s">
+        <v>129</v>
+      </c>
+      <c r="P36" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>2</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>3</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>2884</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>215</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>216</v>
+      </c>
+      <c r="J37" t="s">
+        <v>217</v>
+      </c>
+      <c r="K37" t="s"/>
+      <c r="L37" t="s"/>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="s">
+        <v>211</v>
+      </c>
+      <c r="O37" t="s">
+        <v>72</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
+        <v>2</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>3</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>2884</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>218</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>219</v>
+      </c>
+      <c r="J38" t="s">
+        <v>220</v>
+      </c>
+      <c r="K38" t="s"/>
+      <c r="L38" t="s"/>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>221</v>
+      </c>
+      <c r="O38" t="s">
+        <v>79</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>3</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>3</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>2884</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>222</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>223</v>
+      </c>
+      <c r="J39" t="s">
+        <v>224</v>
+      </c>
+      <c r="K39" t="s"/>
+      <c r="L39" t="s"/>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>221</v>
+      </c>
+      <c r="O39" t="s">
+        <v>79</v>
+      </c>
+      <c r="P39" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>3</v>
+      </c>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="n">
+        <v>3</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>3</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>2884</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>225</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>226</v>
+      </c>
+      <c r="J40" t="s">
+        <v>227</v>
+      </c>
+      <c r="K40" t="s"/>
+      <c r="L40" t="s"/>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>221</v>
+      </c>
+      <c r="O40" t="s">
+        <v>72</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>3</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>3</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>2884</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>228</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>229</v>
+      </c>
+      <c r="J41" t="s">
+        <v>230</v>
+      </c>
+      <c r="K41" t="s">
+        <v>231</v>
+      </c>
+      <c r="L41" t="s">
+        <v>232</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>233</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>2884</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>235</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>236</v>
+      </c>
+      <c r="J42" t="s">
+        <v>237</v>
+      </c>
+      <c r="K42" t="s"/>
+      <c r="L42" t="s"/>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
+        <v>238</v>
+      </c>
+      <c r="O42" t="s">
+        <v>79</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>3</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>2</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>2884</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>239</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>240</v>
+      </c>
+      <c r="J43" t="s">
+        <v>241</v>
+      </c>
+      <c r="K43" t="s"/>
+      <c r="L43" t="s"/>
+      <c r="M43" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" t="s">
+        <v>238</v>
+      </c>
+      <c r="O43" t="s">
+        <v>72</v>
+      </c>
+      <c r="P43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>2</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>2884</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>242</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>243</v>
+      </c>
+      <c r="J44" t="s">
+        <v>244</v>
+      </c>
+      <c r="K44" t="s"/>
+      <c r="L44" t="s"/>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>238</v>
+      </c>
+      <c r="O44" t="s">
+        <v>72</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>2884</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>245</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>246</v>
+      </c>
+      <c r="J45" t="s">
+        <v>247</v>
+      </c>
+      <c r="K45" t="s"/>
+      <c r="L45" t="s"/>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>238</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>2</v>
+      </c>
+      <c r="R45" t="n">
+        <v>3</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>3</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>2884</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>248</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>249</v>
+      </c>
+      <c r="J46" t="s">
+        <v>250</v>
+      </c>
+      <c r="K46" t="s"/>
+      <c r="L46" t="s"/>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>238</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>2884</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>251</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>252</v>
+      </c>
+      <c r="J47" t="s">
+        <v>253</v>
+      </c>
+      <c r="K47" t="s">
+        <v>254</v>
+      </c>
+      <c r="L47" t="s">
+        <v>255</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>256</v>
+      </c>
+      <c r="O47" t="s">
+        <v>129</v>
+      </c>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>2884</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>257</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>258</v>
+      </c>
+      <c r="J48" t="s">
+        <v>259</v>
+      </c>
+      <c r="K48" t="s">
+        <v>260</v>
+      </c>
+      <c r="L48" t="s">
+        <v>261</v>
+      </c>
+      <c r="M48" t="n">
+        <v>2</v>
+      </c>
+      <c r="N48" t="s">
+        <v>256</v>
+      </c>
+      <c r="O48" t="s">
+        <v>189</v>
+      </c>
+      <c r="P48" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>2</v>
+      </c>
+      <c r="R48" t="n">
+        <v>2</v>
+      </c>
+      <c r="S48" t="n">
+        <v>2</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>2</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>2884</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>262</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>263</v>
+      </c>
+      <c r="J49" t="s">
+        <v>264</v>
+      </c>
+      <c r="K49" t="s">
+        <v>265</v>
+      </c>
+      <c r="L49" t="s">
+        <v>266</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
+        <v>256</v>
+      </c>
+      <c r="O49" t="s">
+        <v>189</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>3</v>
+      </c>
+      <c r="R49" t="n">
+        <v>3</v>
+      </c>
+      <c r="S49" t="n">
+        <v>3</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>3</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>2884</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>267</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>268</v>
+      </c>
+      <c r="J50" t="s">
+        <v>269</v>
+      </c>
+      <c r="K50" t="s">
+        <v>270</v>
+      </c>
+      <c r="L50" t="s">
+        <v>271</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s"/>
+      <c r="O50" t="s"/>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>3</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>2884</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>272</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>273</v>
+      </c>
+      <c r="J51" t="s">
+        <v>274</v>
+      </c>
+      <c r="K51" t="s">
+        <v>275</v>
+      </c>
+      <c r="L51" t="s">
+        <v>276</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s">
+        <v>277</v>
+      </c>
+      <c r="O51" t="s">
+        <v>72</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1</v>
+      </c>
+      <c r="R51" t="n">
+        <v>2</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>2</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>2884</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>279</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>280</v>
+      </c>
+      <c r="J52" t="s">
+        <v>281</v>
+      </c>
+      <c r="K52" t="s">
+        <v>282</v>
+      </c>
+      <c r="L52" t="s">
+        <v>283</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="s">
+        <v>284</v>
+      </c>
+      <c r="O52" t="s">
+        <v>79</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>2884</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>286</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>287</v>
+      </c>
+      <c r="J53" t="s">
+        <v>288</v>
+      </c>
+      <c r="K53" t="s">
+        <v>289</v>
+      </c>
+      <c r="L53" t="s">
+        <v>290</v>
+      </c>
+      <c r="M53" t="n">
+        <v>2</v>
+      </c>
+      <c r="N53" t="s">
+        <v>291</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>2</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" t="n">
+        <v>1</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>2</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>2884</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>293</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>294</v>
+      </c>
+      <c r="J54" t="s">
+        <v>295</v>
+      </c>
+      <c r="K54" t="s">
+        <v>296</v>
+      </c>
+      <c r="L54" t="s">
+        <v>297</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>298</v>
+      </c>
+      <c r="O54" t="s">
+        <v>72</v>
+      </c>
+      <c r="P54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="s"/>
+      <c r="S54" t="n">
+        <v>3</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>2884</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>300</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>301</v>
+      </c>
+      <c r="J55" t="s">
+        <v>302</v>
+      </c>
+      <c r="K55" t="s">
+        <v>303</v>
+      </c>
+      <c r="L55" t="s">
+        <v>304</v>
+      </c>
+      <c r="M55" t="n">
+        <v>2</v>
+      </c>
+      <c r="N55" t="s">
+        <v>305</v>
+      </c>
+      <c r="O55" t="s">
+        <v>72</v>
+      </c>
+      <c r="P55" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>2</v>
+      </c>
+      <c r="R55" t="s"/>
+      <c r="S55" t="n">
+        <v>2</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>3</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>306</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_457.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_457.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="361">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Ashley H</t>
+  </si>
+  <si>
     <t>07/06/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>The room was huge. Had microwave and fridge which was not expected. Each room has a patio i thought was nice. Hotel was quiet and we had a nice stay. The room numbers are weird and so was parking but overall it was not bad. I would stay again.More</t>
   </si>
   <si>
+    <t>Jim T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r339287078-Knights_Inn_Claremont-Claremont_California.html</t>
   </si>
   <si>
@@ -216,6 +222,9 @@
     <t>We have stayed at this hotel dozens and dozens of times over 30 years under 4 or 5 different owners.   We loved the location.   Sadly, this is the last time ... it is just getting worse each visit.  This hotel really needs to get an owner that is ready to bring it back to a quality stay.   Washing machines were out of order, WiFi worked only if they rebooted the router (had to ask them every day), really old smelly carpet in the halls, door locks worked off and on, free continental breakfast was easily the worst we have seen anywhere anytime.  They failed to service the room on 1 of our 3 nights.  Attempts to get help from the front desk went no where as the desk was unmanned frequently.  They have no elevator for the 2nd floor.  Attempts to give them some feed back got the "I will tell the manager" response.   Side comment... there is an excellent restaurant with fabulous breakfasts right next to the hotel.More</t>
   </si>
   <si>
+    <t>Windman69</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r333643842-Knights_Inn_Claremont-Claremont_California.html</t>
   </si>
   <si>
@@ -237,6 +246,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Kirsten S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r274509414-Knights_Inn_Claremont-Claremont_California.html</t>
   </si>
   <si>
@@ -261,6 +273,9 @@
     <t>I was there for a reunion at the 5 colleges. I read that this was right by the freeway so I brought earplugs and a white noise maker-- and with these I slept well (I'm a light sleeper).  The rooms with one bed are on the side of the building facing the freeway while the rooms with two beds are on the opposite side of the building from the freeway and face the pool. I didn't use it but the pool seemed small but nice. The room was quite clean with nice sheets, but worn if that bothers you (stained grout in the bathroom, a hole in the rug, and the decor was dated). They were working on improving some of the rooms on the pool side while I was there, so this may improve. The staff at the  front desk were very nice and helpful. There is a gas station convenience store right next door and a small fridge in the room.More</t>
   </si>
   <si>
+    <t>475annonymous</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r243579588-Knights_Inn_Claremont-Claremont_California.html</t>
   </si>
   <si>
@@ -282,6 +297,9 @@
     <t>Overall our stay was OK.  We specifically booked this hotel for the pool, but was unable to use it due to the 200 or more worms floating on the bottom of the pool.  I also needed WiFi for work, but was unable to connect the whole time.  I called the office and they said they would re-set the modem, but it did not work.  Their replay was "I already re-booted the modem.  There is nothing more I can do."  The two things I was looking for was unusable.The continental breakfast was nice.  It had just a few items, but that's all we needed.  Also we were woken up at 5:30am by the people above us, stomping so loud for two hours.    More</t>
   </si>
   <si>
+    <t>32williamd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r240896913-Knights_Inn_Claremont-Claremont_California.html</t>
   </si>
   <si>
@@ -300,6 +318,9 @@
     <t>November 2014</t>
   </si>
   <si>
+    <t>Kumar P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r227785872-Knights_Inn_Claremont-Claremont_California.html</t>
   </si>
   <si>
@@ -318,6 +339,9 @@
     <t>September 2014</t>
   </si>
   <si>
+    <t>Ellen A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r226974639-Knights_Inn_Claremont-Claremont_California.html</t>
   </si>
   <si>
@@ -336,6 +360,9 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>Donna M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r225377641-Knights_Inn_Claremont-Claremont_California.html</t>
   </si>
   <si>
@@ -345,6 +372,9 @@
     <t>08/29/2014</t>
   </si>
   <si>
+    <t>Tom C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r207700534-Knights_Inn_Claremont-Claremont_California.html</t>
   </si>
   <si>
@@ -357,12 +387,18 @@
     <t>May 2014</t>
   </si>
   <si>
+    <t>Upset F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r207562070-Knights_Inn_Claremont-Claremont_California.html</t>
   </si>
   <si>
     <t>207562070</t>
   </si>
   <si>
+    <t>Sherry T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r205602591-Knights_Inn_Claremont-Claremont_California.html</t>
   </si>
   <si>
@@ -372,6 +408,9 @@
     <t>05/14/2014</t>
   </si>
   <si>
+    <t>J M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r201592484-Knights_Inn_Claremont-Claremont_California.html</t>
   </si>
   <si>
@@ -384,6 +423,9 @@
     <t>April 2014</t>
   </si>
   <si>
+    <t>Michael D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r199567886-Knights_Inn_Claremont-Claremont_California.html</t>
   </si>
   <si>
@@ -396,6 +438,9 @@
     <t>March 2014</t>
   </si>
   <si>
+    <t>Walter C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r197337648-Knights_Inn_Claremont-Claremont_California.html</t>
   </si>
   <si>
@@ -408,6 +453,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Marcellus K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r192461529-Knights_Inn_Claremont-Claremont_California.html</t>
   </si>
   <si>
@@ -420,6 +468,9 @@
     <t>January 2014</t>
   </si>
   <si>
+    <t>Melissa L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r192383825-Knights_Inn_Claremont-Claremont_California.html</t>
   </si>
   <si>
@@ -435,12 +486,18 @@
     <t>More</t>
   </si>
   <si>
+    <t>Michael B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r192380092-Knights_Inn_Claremont-Claremont_California.html</t>
   </si>
   <si>
     <t>192380092</t>
   </si>
   <si>
+    <t>Kbarn17</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r189485591-Knights_Inn_Claremont-Claremont_California.html</t>
   </si>
   <si>
@@ -456,6 +513,9 @@
     <t>This hotel is deceiving from the pictures. Beds were comfortable, but didn't have fitted sheets, just 2 sheets laid on top of one another. TV didn't work half the time, toilet refilled with water only every few hours so you couldn't flush. Close to expressway for easy access and only a $5 cab ride to Claremont Village which is great for restaurants and bars</t>
   </si>
   <si>
+    <t>Michael G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r189481209-Knights_Inn_Claremont-Claremont_California.html</t>
   </si>
   <si>
@@ -465,6 +525,9 @@
     <t>December 2013</t>
   </si>
   <si>
+    <t>B H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r189157157-Knights_Inn_Claremont-Claremont_California.html</t>
   </si>
   <si>
@@ -480,6 +543,9 @@
     <t xml:space="preserve">the hotel is old. even the dridge in my room is old. they should separate smoking from non smoking rooms. the hallway in the first entrance reeks of smoke. if the freeway noise don't bother you, it's a decend inn. it's close tho stripe mall, restaurants, fast food joints, and convenience stores. </t>
   </si>
   <si>
+    <t>Carmen G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r184611645-Knights_Inn_Claremont-Claremont_California.html</t>
   </si>
   <si>
@@ -492,6 +558,9 @@
     <t>November 2013</t>
   </si>
   <si>
+    <t>R F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r184527393-Knights_Inn_Claremont-Claremont_California.html</t>
   </si>
   <si>
@@ -501,6 +570,9 @@
     <t>11/12/2013</t>
   </si>
   <si>
+    <t>Dhuen</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r180461697-Knights_Inn_Claremont-Claremont_California.html</t>
   </si>
   <si>
@@ -519,6 +591,9 @@
     <t>I had a few days off and wanted to visit my daughter at Scripps College. This hotel was only 1 1/2 miles away, so seemed a likely choice. Upon entering the hallway, you realize this hotel is very old and is in dire need of an update. I got a king room facing the highway and was afraid it would be too noisy, but it was okay. For what I paid ($52p/n), it was well worth it. Keep in mind that this is not a 5 star hotel. The rooms were adequate and beds very comfortable. There is even a free breakfast (hard boil eggs, packaged pastries, bagels, cold cereals, oatmeal). They even had complimentary newspapers. The people at the front desk was always very pleasant and helpful. If you only need a place to crash for a few days, this place is not bad.More</t>
   </si>
   <si>
+    <t>malv1363</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r177297770-Knights_Inn_Claremont-Claremont_California.html</t>
   </si>
   <si>
@@ -537,6 +612,9 @@
     <t>September 2013</t>
   </si>
   <si>
+    <t>austed04</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r176127520-Knights_Inn_Claremont-Claremont_California.html</t>
   </si>
   <si>
@@ -555,6 +633,9 @@
     <t>I have never written a review before, but I am livid. I stayed here to be closer to family. This place is awful. Arrive at about 8:30PM on a very hot day (it hit 105 and at 9:00 at night is still 85 degrees out) and the T.V. is blaring in the lobby with a Chinese station. The lady at check-in was very abrupt and barely spoke English. She says is the 2nd floor okay, I ask if there is an elevator, she doesn't respond. Says something about taking the first or second entrance, but doesn't say where those entrances are. Walk into the hallway to get to room and it is extremely hot. I get to my room and it was probably at least 100 degrees in there. I wanted to put some leftovers in the refrigerator, but the door was left wide open. I close the door and wait. Nothing seems to be happening after 20 minutes. I call down and the lady at the front desk rudely tells me that I have to flip the switch???? I ask her how and again very abruptly she tells me there is a lever (it is a dial) on the back of the refrigerator.  There also is no clock in the room. The toilet wouldn't flush, I had to call the desk to get it fixed. The T.V. remote didn't work, the guy had to program it.  The T.V. doesn't...I have never written a review before, but I am livid. I stayed here to be closer to family. This place is awful. Arrive at about 8:30PM on a very hot day (it hit 105 and at 9:00 at night is still 85 degrees out) and the T.V. is blaring in the lobby with a Chinese station. The lady at check-in was very abrupt and barely spoke English. She says is the 2nd floor okay, I ask if there is an elevator, she doesn't respond. Says something about taking the first or second entrance, but doesn't say where those entrances are. Walk into the hallway to get to room and it is extremely hot. I get to my room and it was probably at least 100 degrees in there. I wanted to put some leftovers in the refrigerator, but the door was left wide open. I close the door and wait. Nothing seems to be happening after 20 minutes. I call down and the lady at the front desk rudely tells me that I have to flip the switch???? I ask her how and again very abruptly she tells me there is a lever (it is a dial) on the back of the refrigerator.  There also is no clock in the room. The toilet wouldn't flush, I had to call the desk to get it fixed. The T.V. remote didn't work, the guy had to program it.  The T.V. doesn't have a clear picture. I won't shower as the tub looks like it has mold in it. This place was a lot cheaper than the Doubletree and I figured based on the reviews it wouldn't be bad for one night. I stay near Disneyland frequently and have paid less than this for a lot more. I think there are other motels that are not too far about the same price-I would stay there or even as far away as Anaheim before I stayed here again!  The maintenance guy seemed okay.This is based on being here for about an hour.More</t>
   </si>
   <si>
+    <t>Tedmonds81</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r175577628-Knights_Inn_Claremont-Claremont_California.html</t>
   </si>
   <si>
@@ -573,6 +654,9 @@
     <t>So I should have know that if the rate was that cheap there was a good reason. Checking into the hotel was interesting as the front desk gal barily spoke English and basically argued with me that I had already checked? Then we get to our room and the fridge was blocking the door to the adjoining room of which we were next to friends and couldn't open the door. The bathroom was the worst towels had hair on them and floors were so dirty and there was a part of the wall coming off the side of the bath tub. The tv remote didn't work and the lights were motion sensor so they would turn off while in the room and you had to find your way over to the light next to the door to turn it back on for some reason.More</t>
   </si>
   <si>
+    <t>Cynthia D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r167342906-Knights_Inn_Claremont-Claremont_California.html</t>
   </si>
   <si>
@@ -588,6 +672,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Marcus M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r166966940-Knights_Inn_Claremont-Claremont_California.html</t>
   </si>
   <si>
@@ -597,6 +684,9 @@
     <t>07/09/2013</t>
   </si>
   <si>
+    <t>crunch777</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r166467386-Knights_Inn_Claremont-Claremont_California.html</t>
   </si>
   <si>
@@ -609,6 +699,9 @@
     <t>June 2013</t>
   </si>
   <si>
+    <t>Ashlea S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r160279277-Knights_Inn_Claremont-Claremont_California.html</t>
   </si>
   <si>
@@ -621,6 +714,9 @@
     <t>May 2013</t>
   </si>
   <si>
+    <t>Gayle P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r158973059-Knights_Inn_Claremont-Claremont_California.html</t>
   </si>
   <si>
@@ -633,6 +729,9 @@
     <t>April 2013</t>
   </si>
   <si>
+    <t>Brenda A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r157224759-Knights_Inn_Claremont-Claremont_California.html</t>
   </si>
   <si>
@@ -642,6 +741,9 @@
     <t>04/09/2013</t>
   </si>
   <si>
+    <t>Donald D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r155763145-Knights_Inn_Claremont-Claremont_California.html</t>
   </si>
   <si>
@@ -654,6 +756,9 @@
     <t>March 2013</t>
   </si>
   <si>
+    <t>Kathryn P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r154709138-Knights_Inn_Claremont-Claremont_California.html</t>
   </si>
   <si>
@@ -663,6 +768,9 @@
     <t>03/15/2013</t>
   </si>
   <si>
+    <t>Stephen R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r154363915-Knights_Inn_Claremont-Claremont_California.html</t>
   </si>
   <si>
@@ -672,6 +780,9 @@
     <t>03/12/2013</t>
   </si>
   <si>
+    <t>JOHN F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r151090621-Knights_Inn_Claremont-Claremont_California.html</t>
   </si>
   <si>
@@ -684,6 +795,9 @@
     <t>January 2013</t>
   </si>
   <si>
+    <t>ALESSANDRA M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r150858387-Knights_Inn_Claremont-Claremont_California.html</t>
   </si>
   <si>
@@ -693,6 +807,9 @@
     <t>01/28/2013</t>
   </si>
   <si>
+    <t>KIMBERLY E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r150684515-Knights_Inn_Claremont-Claremont_California.html</t>
   </si>
   <si>
@@ -702,6 +819,9 @@
     <t>01/26/2013</t>
   </si>
   <si>
+    <t>DENISE W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r145352121-Knights_Inn_Claremont-Claremont_California.html</t>
   </si>
   <si>
@@ -723,6 +843,9 @@
     <t>Friendly staff, room and hotel were clean.  Breakfast area was small and cramped, but they stocked it constantly so no shortage of food.  Fresh fruit, hard boiled eggs, oatmeal, individual packaged pastries, coffee, cereal &amp; milk, and juices.  Our room had a refrigerator which I was not expecting, a full sized iron board.  Some of the lights in the room did not work.  When we tried to use the heater, a metallic smell spread through room so we turned it off and were fine with blankets.  Didn't bother to call and ask about it or to have it fixed since it was only a little chilly, so no comment as to how it would have been resolved.  Very close to freeway, and did not hear it in room.  More</t>
   </si>
   <si>
+    <t>TOM A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r144134366-Knights_Inn_Claremont-Claremont_California.html</t>
   </si>
   <si>
@@ -735,6 +858,9 @@
     <t>October 2012</t>
   </si>
   <si>
+    <t>ANTHONY S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r144024505-Knights_Inn_Claremont-Claremont_California.html</t>
   </si>
   <si>
@@ -744,6 +870,9 @@
     <t>10/29/2012</t>
   </si>
   <si>
+    <t>kingarthur55</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r143205589-Knights_Inn_Claremont-Claremont_California.html</t>
   </si>
   <si>
@@ -753,6 +882,9 @@
     <t>10/19/2012</t>
   </si>
   <si>
+    <t>Vicki D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r142521460-Knights_Inn_Claremont-Claremont_California.html</t>
   </si>
   <si>
@@ -762,6 +894,9 @@
     <t>10/10/2012</t>
   </si>
   <si>
+    <t>JUAN_MAURO_CARDENAS</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r142444747-Knights_Inn_Claremont-Claremont_California.html</t>
   </si>
   <si>
@@ -771,6 +906,9 @@
     <t>10/09/2012</t>
   </si>
   <si>
+    <t>BARBARA C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r141011802-Knights_Inn_Claremont-Claremont_California.html</t>
   </si>
   <si>
@@ -789,6 +927,9 @@
     <t>September 2012</t>
   </si>
   <si>
+    <t>JANE C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r140730816-Knights_Inn_Claremont-Claremont_California.html</t>
   </si>
   <si>
@@ -804,6 +945,9 @@
     <t xml:space="preserve">Not only did the coffee maker not brew coffee, but the shower's hot water would not turn off.  I hope we not encounter any problems when we stay there on Sept. 28, 2012.   </t>
   </si>
   <si>
+    <t>ALISON P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r140546145-Knights_Inn_Claremont-Claremont_California.html</t>
   </si>
   <si>
@@ -819,6 +963,9 @@
     <t>While the price was right and in general the room was clean, this Howard Johnson needs a bit of updating and attention to details. There was a chain lock on the balcony door that was broken, as well as a broken drawer. The bathtub  had seen better days giving it a dirty appearance and there was a hair in it. The TV had extremely poor reception  on local channels obviously not cable or satellite. Also, there were several bulbs out in the lamps and lastly, ONLY ONE ELECTRICAL OUTLET FOR GUEST USE!</t>
   </si>
   <si>
+    <t>travelingolfer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r92839547-Knights_Inn_Claremont-Claremont_California.html</t>
   </si>
   <si>
@@ -832,6 +979,9 @@
   </si>
   <si>
     <t xml:space="preserve">I have stayed here at least 15 times. Many restaurants near by, right off the 10 freeway, and easy to park. Rooms all have a comfortable chair, and showers have good pressure. Old decor, not fancy, functional and clean. </t>
+  </si>
+  <si>
+    <t>DarcyBC</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r76382205-Knights_Inn_Claremont-Claremont_California.html</t>
@@ -875,6 +1025,9 @@
 I understand that I was looking for a cheaper hotel in...This is a poorly kept hotel.  I am surprised that the Howard Johnson franchise has not insisted on the owners to do some maintenance.1.  The phone will not be turned on unless you leave a $20.00 deposit.2.  There is virtually no hot water.  They are trying to conserve their bills.  Even after complaining about the temperature of the water, the "Manager" said he would turn up the boiler, but it wasn't done.3.  The room is dirty...They have not taken the time to vacuum behind the bed and when I pulled out the bed to plug in my phone charger I found all sorts of New Years Eve confetti4.  The security bar on the door is loose and the the handle to the sliding glass doors fell off.5.  There was a car parked outside my room and the car alarm went off all night and when I asked to be moved to the other side of the hotel, I was told it would be another $10.00 per night!!!!6.  The reception area is disgusting... plain and simple.  It does not look like the photos online which is now obvious that it was staged for the internet.7.  The bathroom was disgusting.8.  I check out and found another hotel for the rest of my stay.DO NOT BOOK THIS HOTEL... .. YOU WILL REGRET IT!I understand that I was looking for a cheaper hotel in the area, but this hotel needs to be completely renovated if they want to maintain the standards of a Howard Johnson Hotel.More</t>
   </si>
   <si>
+    <t>Markus47</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r63434154-Knights_Inn_Claremont-Claremont_California.html</t>
   </si>
   <si>
@@ -896,6 +1049,9 @@
     <t>Hotels are scarce in Claremont and I decided to give this one a try because I'm a city dweller who, on his return to the alma mater for a reunion, wanted to recreate the good old days of not traveling to campus via car.It's not so much that it's physically impossible to walk to the Claremont Colleges from this place as that it's highly unlikely you'll even want to do it. Therefore you are taking a place located less than 100 feet from the San Bernadino Freeway, unremodeled since the 60's or 70's with all of the requisite spots, grime, garishness, squeaks and groans. My neighbors were partiers which was no big deal, but it would bother someone who needs absolute quiet before 2 am or so.Upsides? The people running it seem nice enough and were willing to move my room from one facing I-10 to one on the interior side for $10 extra a night. Parking is easy and there is a gas station mini-mart right outside. And the price is obviously quite inexpensive - but there are inexpensive hotels on down in Pomona which my friends seemed more pleased with, so treat yourself to one of those instead and drive the extra 5 minutes or so.Also - free wifi.More</t>
   </si>
   <si>
+    <t>James47</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r13993282-Knights_Inn_Claremont-Claremont_California.html</t>
   </si>
   <si>
@@ -917,6 +1073,9 @@
     <t>I stayed at this HoJos in late Feb 2008, and it was a very mixed experience.   It is only about 100 yards off of I-10, and the constant traffic is very noisy.   The rooms with one king bed are all on that side, so be prepared.  If you must have the king bed, ask for a room on the far West end-there is at least a wall between those rooms and the interstate, which cuts down the noise somewhat.  The rooms on the other side of the hotel are much quieter, but have 2 double beds and cost $10/night more.   This place has seen better days, and I think has had a lot of rough experiences with people staying there.  When you check in, they immediately debit your card, I presume so they get paid if you skip out.   There are signs in the small lobby warning, "NO GUESTS", "NO PARTIES-IF YOU ARE TOLD TO LEAVE, NO REFUND", so I guess they have had problems with rowdy folks.   The physical facilities are in sad shape-peeling paint, some holes in some walls, dingy hallways, stained carpet.   There was a single torchier type lamp in the bedroom, which lamp had been knocked about quite a bit, as it was bent in the middle, and the bottom was held together with mailing tape.   The hangers not only were the kind that didn't have a hook to discourage theft, but were also permanently attached...I stayed at this HoJos in late Feb 2008, and it was a very mixed experience.   It is only about 100 yards off of I-10, and the constant traffic is very noisy.   The rooms with one king bed are all on that side, so be prepared.  If you must have the king bed, ask for a room on the far West end-there is at least a wall between those rooms and the interstate, which cuts down the noise somewhat.  The rooms on the other side of the hotel are much quieter, but have 2 double beds and cost $10/night more.   This place has seen better days, and I think has had a lot of rough experiences with people staying there.  When you check in, they immediately debit your card, I presume so they get paid if you skip out.   There are signs in the small lobby warning, "NO GUESTS", "NO PARTIES-IF YOU ARE TOLD TO LEAVE, NO REFUND", so I guess they have had problems with rowdy folks.   The physical facilities are in sad shape-peeling paint, some holes in some walls, dingy hallways, stained carpet.   There was a single torchier type lamp in the bedroom, which lamp had been knocked about quite a bit, as it was bent in the middle, and the bottom was held together with mailing tape.   The hangers not only were the kind that didn't have a hook to discourage theft, but were also permanently attached to the rod so you couldn't even take them off the rod.  If you wanted to make a phone call, you had to put in a $20 deposit, so perhaps some people had skipped out on the phone bills.  The continental breakfast was coffee, tea, OJ, some dry cereal, and some cellophane packaged muffins.   On the other hand,  there was a small refrigerator in the room, which was nice.  And the staff, while not overly friendly, was ok.  The people next door to me were carousing loudly until well after 11 one night.  Mindful for the "No Parties" sign in the lobby, I called the front desk to complain, and within a couple of minutes, there was a loud knock on the door of the party room, and the noise stopped.   And the overall cost ($69 for noisy king bed or $79 for quieter doubles) was 1/2 to 1/3 the cost of other places nearby.   So, as somebody else said, this place is bearable for a night or two, as long as your expectations are not high.More</t>
   </si>
   <si>
+    <t>dierdre58</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r5394967-Knights_Inn_Claremont-Claremont_California.html</t>
   </si>
   <si>
@@ -936,6 +1095,9 @@
   </si>
   <si>
     <t>I was recently stuck overnight in Claremont on business. I'd stayed at other facilities there that cost more and delivered poorly. I called Howard Johnson's late and found the person on duty to be very friendly and accomodating. When I explained that I was on a stingy per diem, she pleasantly offered a nice discount from the rack rate.The rooms are good-sized standard-issue motel rooms with clean bathrooms plus mini-refrigerators and free high-speed wireless internet. One nice surprise was that, even though my room faced the 10 Freeway, with only a sliding glass door on that side, road noise was very muted and did not interfere with my sleep in any way.Although this facility might not look all new and shiny on the outside, give it a shot if you need an inexpensive but very decent room in Claremont.More</t>
+  </si>
+  <si>
+    <t>Hot_Tee</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32215-d76535-r4774178-Knights_Inn_Claremont-Claremont_California.html</t>
@@ -1461,43 +1623,47 @@
       <c r="A2" t="n">
         <v>2884</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1509,56 +1675,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>2884</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
@@ -1576,56 +1746,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>2884</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1639,50 +1813,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>2884</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P5" t="n">
         <v>4</v>
@@ -1702,50 +1880,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>2884</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>85</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="L6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="n">
         <v>4</v>
@@ -1769,50 +1951,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>2884</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>93</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="J7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="K7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="L7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="n">
         <v>2</v>
@@ -1836,50 +2022,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>2884</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>100</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="J8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="K8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="O8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P8" t="n">
         <v>3</v>
@@ -1903,50 +2093,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>2884</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>107</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="J9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="K9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="L9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="O9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1964,35 +2158,39 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>2884</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>114</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="J10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -2000,10 +2198,10 @@
         <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="n">
         <v>2</v>
@@ -2024,36 +2222,37 @@
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
-      <c r="Y10" t="s"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>2884</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>118</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="J11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
@@ -2061,10 +2260,10 @@
         <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="n">
         <v>4</v>
@@ -2085,36 +2284,37 @@
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
-      <c r="Y11" t="s"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>2884</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>123</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="J12" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="K12" t="s"/>
       <c r="L12" t="s"/>
@@ -2122,10 +2322,10 @@
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="n">
         <v>1</v>
@@ -2146,36 +2346,37 @@
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s"/>
-      <c r="X12" t="s"/>
-      <c r="Y12" t="s"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>2884</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>126</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="J13" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="K13" t="s"/>
       <c r="L13" t="s"/>
@@ -2183,10 +2384,10 @@
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="n">
         <v>4</v>
@@ -2207,36 +2408,37 @@
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
-      <c r="Y13" t="s"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>2884</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>130</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="J14" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="K14" t="s"/>
       <c r="L14" t="s"/>
@@ -2244,10 +2446,10 @@
         <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="O14" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P14" t="n">
         <v>2</v>
@@ -2268,36 +2470,37 @@
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
-      <c r="Y14" t="s"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>2884</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>135</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="J15" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="K15" t="s"/>
       <c r="L15" t="s"/>
@@ -2305,10 +2508,10 @@
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="O15" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P15" t="n">
         <v>3</v>
@@ -2329,36 +2532,37 @@
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
-      <c r="Y15" t="s"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>2884</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>140</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="J16" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="K16" t="s"/>
       <c r="L16" t="s"/>
@@ -2366,10 +2570,10 @@
         <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="O16" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2380,36 +2584,37 @@
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
-      <c r="Y16" t="s"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>2884</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>145</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="J17" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="K17" t="s"/>
       <c r="L17" t="s"/>
@@ -2417,10 +2622,10 @@
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="n">
         <v>3</v>
@@ -2441,49 +2646,50 @@
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
-      <c r="Y17" t="s"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>2884</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>150</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="J18" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="K18" t="s"/>
       <c r="L18" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="O18" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P18" t="n">
         <v>3</v>
@@ -2507,35 +2713,39 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>2884</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>156</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="J19" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="K19" t="s"/>
       <c r="L19" t="s"/>
@@ -2543,10 +2753,10 @@
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="O19" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="P19" t="n">
         <v>1</v>
@@ -2567,42 +2777,43 @@
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
-      <c r="Y19" t="s"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>2884</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>159</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="J20" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="K20" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="L20" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="M20" t="n">
         <v>2</v>
@@ -2631,35 +2842,39 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>2884</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>165</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="J21" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="K21" t="s"/>
       <c r="L21" t="s"/>
@@ -2667,10 +2882,10 @@
         <v>2</v>
       </c>
       <c r="N21" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="n">
         <v>2</v>
@@ -2691,51 +2906,52 @@
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
-      <c r="Y21" t="s"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>2884</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>169</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="J22" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="K22" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="L22" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="M22" t="n">
         <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="O22" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P22" t="n">
         <v>3</v>
@@ -2759,35 +2975,39 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>2884</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>175</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="J23" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="K23" t="s"/>
       <c r="L23" t="s"/>
@@ -2795,10 +3015,10 @@
         <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="n">
         <v>1</v>
@@ -2817,36 +3037,37 @@
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
-      <c r="Y23" t="s"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>2884</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>180</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="J24" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="K24" t="s"/>
       <c r="L24" t="s"/>
@@ -2854,10 +3075,10 @@
         <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="O24" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="P24" t="n">
         <v>4</v>
@@ -2878,42 +3099,43 @@
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
-      <c r="Y24" t="s"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>2884</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>184</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="J25" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="K25" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="L25" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
@@ -2942,50 +3164,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>2884</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>191</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="J26" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="K26" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="L26" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="M26" t="n">
         <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="n">
         <v>4</v>
@@ -3009,50 +3235,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>2884</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>198</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c r="J27" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="K27" t="s">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="L27" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="O27" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P27" t="n">
         <v>2</v>
@@ -3076,50 +3306,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>178</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>2884</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>205</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>179</v>
+        <v>206</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="J28" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="K28" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="L28" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="M28" t="n">
         <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="O28" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="P28" t="n">
         <v>2</v>
@@ -3143,35 +3377,39 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>2884</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>212</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>185</v>
+        <v>213</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="J29" t="s">
-        <v>187</v>
+        <v>215</v>
       </c>
       <c r="K29" t="s"/>
       <c r="L29" t="s"/>
@@ -3179,10 +3417,10 @@
         <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="O29" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="P29" t="n">
         <v>3</v>
@@ -3203,36 +3441,37 @@
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s"/>
-      <c r="X29" t="s"/>
-      <c r="Y29" t="s"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>2884</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>218</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>190</v>
+        <v>219</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="J30" t="s">
-        <v>192</v>
+        <v>221</v>
       </c>
       <c r="K30" t="s"/>
       <c r="L30" t="s"/>
@@ -3240,10 +3479,10 @@
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="O30" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="P30" t="n">
         <v>3</v>
@@ -3264,36 +3503,37 @@
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s"/>
-      <c r="X30" t="s"/>
-      <c r="Y30" t="s"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>2884</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>222</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="J31" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="K31" t="s"/>
       <c r="L31" t="s"/>
@@ -3301,10 +3541,10 @@
         <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="n">
         <v>3</v>
@@ -3325,36 +3565,37 @@
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
-      <c r="Y31" t="s"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>2884</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>227</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>197</v>
+        <v>228</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>198</v>
+        <v>229</v>
       </c>
       <c r="J32" t="s">
-        <v>199</v>
+        <v>230</v>
       </c>
       <c r="K32" t="s"/>
       <c r="L32" t="s"/>
@@ -3362,10 +3603,10 @@
         <v>2</v>
       </c>
       <c r="N32" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P32" t="n">
         <v>2</v>
@@ -3386,36 +3627,37 @@
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s"/>
-      <c r="X32" t="s"/>
-      <c r="Y32" t="s"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>2884</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>232</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>201</v>
+        <v>233</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>202</v>
+        <v>234</v>
       </c>
       <c r="J33" t="s">
-        <v>203</v>
+        <v>235</v>
       </c>
       <c r="K33" t="s"/>
       <c r="L33" t="s"/>
@@ -3423,10 +3665,10 @@
         <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="n">
         <v>5</v>
@@ -3447,36 +3689,37 @@
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s"/>
-      <c r="X33" t="s"/>
-      <c r="Y33" t="s"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>2884</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>237</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>205</v>
+        <v>238</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>206</v>
+        <v>239</v>
       </c>
       <c r="J34" t="s">
-        <v>207</v>
+        <v>240</v>
       </c>
       <c r="K34" t="s"/>
       <c r="L34" t="s"/>
@@ -3484,10 +3727,10 @@
         <v>2</v>
       </c>
       <c r="N34" t="s">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c r="O34" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="P34" t="n">
         <v>1</v>
@@ -3508,36 +3751,37 @@
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s"/>
-      <c r="X34" t="s"/>
-      <c r="Y34" t="s"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>2884</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>241</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>209</v>
+        <v>243</v>
       </c>
       <c r="J35" t="s">
-        <v>210</v>
+        <v>244</v>
       </c>
       <c r="K35" t="s"/>
       <c r="L35" t="s"/>
@@ -3545,10 +3789,10 @@
         <v>2</v>
       </c>
       <c r="N35" t="s">
-        <v>211</v>
+        <v>245</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="n">
         <v>2</v>
@@ -3569,36 +3813,37 @@
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s"/>
-      <c r="X35" t="s"/>
-      <c r="Y35" t="s"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>2884</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>246</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>212</v>
+        <v>247</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="J36" t="s">
-        <v>214</v>
+        <v>249</v>
       </c>
       <c r="K36" t="s"/>
       <c r="L36" t="s"/>
@@ -3606,10 +3851,10 @@
         <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>211</v>
+        <v>245</v>
       </c>
       <c r="O36" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="P36" t="n">
         <v>3</v>
@@ -3630,36 +3875,37 @@
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s"/>
-      <c r="X36" t="s"/>
-      <c r="Y36" t="s"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>2884</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>250</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>215</v>
+        <v>251</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>216</v>
+        <v>252</v>
       </c>
       <c r="J37" t="s">
-        <v>217</v>
+        <v>253</v>
       </c>
       <c r="K37" t="s"/>
       <c r="L37" t="s"/>
@@ -3667,10 +3913,10 @@
         <v>2</v>
       </c>
       <c r="N37" t="s">
-        <v>211</v>
+        <v>245</v>
       </c>
       <c r="O37" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="n">
@@ -3689,36 +3935,37 @@
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s"/>
-      <c r="X37" t="s"/>
-      <c r="Y37" t="s"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>2884</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>254</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>218</v>
+        <v>255</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>219</v>
+        <v>256</v>
       </c>
       <c r="J38" t="s">
-        <v>220</v>
+        <v>257</v>
       </c>
       <c r="K38" t="s"/>
       <c r="L38" t="s"/>
@@ -3726,10 +3973,10 @@
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>221</v>
+        <v>258</v>
       </c>
       <c r="O38" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P38" t="n">
         <v>4</v>
@@ -3750,36 +3997,37 @@
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s"/>
-      <c r="X38" t="s"/>
-      <c r="Y38" t="s"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>2884</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>259</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>222</v>
+        <v>260</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>223</v>
+        <v>261</v>
       </c>
       <c r="J39" t="s">
-        <v>224</v>
+        <v>262</v>
       </c>
       <c r="K39" t="s"/>
       <c r="L39" t="s"/>
@@ -3787,10 +4035,10 @@
         <v>3</v>
       </c>
       <c r="N39" t="s">
-        <v>221</v>
+        <v>258</v>
       </c>
       <c r="O39" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P39" t="n">
         <v>3</v>
@@ -3811,36 +4059,37 @@
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s"/>
-      <c r="X39" t="s"/>
-      <c r="Y39" t="s"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>2884</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>263</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>225</v>
+        <v>264</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>226</v>
+        <v>265</v>
       </c>
       <c r="J40" t="s">
-        <v>227</v>
+        <v>266</v>
       </c>
       <c r="K40" t="s"/>
       <c r="L40" t="s"/>
@@ -3848,10 +4097,10 @@
         <v>3</v>
       </c>
       <c r="N40" t="s">
-        <v>221</v>
+        <v>258</v>
       </c>
       <c r="O40" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -3872,51 +4121,52 @@
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s"/>
-      <c r="X40" t="s"/>
-      <c r="Y40" t="s"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>2884</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>267</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>228</v>
+        <v>268</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>229</v>
+        <v>269</v>
       </c>
       <c r="J41" t="s">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c r="K41" t="s">
-        <v>231</v>
+        <v>271</v>
       </c>
       <c r="L41" t="s">
-        <v>232</v>
+        <v>272</v>
       </c>
       <c r="M41" t="n">
         <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>233</v>
+        <v>273</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P41" t="n">
         <v>3</v>
@@ -3940,35 +4190,39 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>234</v>
+        <v>274</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>2884</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>275</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>235</v>
+        <v>276</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>236</v>
+        <v>277</v>
       </c>
       <c r="J42" t="s">
-        <v>237</v>
+        <v>278</v>
       </c>
       <c r="K42" t="s"/>
       <c r="L42" t="s"/>
@@ -3976,10 +4230,10 @@
         <v>3</v>
       </c>
       <c r="N42" t="s">
-        <v>238</v>
+        <v>279</v>
       </c>
       <c r="O42" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P42" t="n">
         <v>4</v>
@@ -4000,36 +4254,37 @@
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s"/>
-      <c r="X42" t="s"/>
-      <c r="Y42" t="s"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>2884</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>280</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>239</v>
+        <v>281</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>240</v>
+        <v>282</v>
       </c>
       <c r="J43" t="s">
-        <v>241</v>
+        <v>283</v>
       </c>
       <c r="K43" t="s"/>
       <c r="L43" t="s"/>
@@ -4037,10 +4292,10 @@
         <v>2</v>
       </c>
       <c r="N43" t="s">
-        <v>238</v>
+        <v>279</v>
       </c>
       <c r="O43" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P43" t="n">
         <v>3</v>
@@ -4061,36 +4316,37 @@
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s"/>
-      <c r="X43" t="s"/>
-      <c r="Y43" t="s"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>2884</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>284</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>242</v>
+        <v>285</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>243</v>
+        <v>286</v>
       </c>
       <c r="J44" t="s">
-        <v>244</v>
+        <v>287</v>
       </c>
       <c r="K44" t="s"/>
       <c r="L44" t="s"/>
@@ -4098,10 +4354,10 @@
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>238</v>
+        <v>279</v>
       </c>
       <c r="O44" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -4122,36 +4378,37 @@
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s"/>
-      <c r="X44" t="s"/>
-      <c r="Y44" t="s"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>2884</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>288</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>245</v>
+        <v>289</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>246</v>
+        <v>290</v>
       </c>
       <c r="J45" t="s">
-        <v>247</v>
+        <v>291</v>
       </c>
       <c r="K45" t="s"/>
       <c r="L45" t="s"/>
@@ -4159,10 +4416,10 @@
         <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>238</v>
+        <v>279</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P45" t="n">
         <v>1</v>
@@ -4183,36 +4440,37 @@
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s"/>
-      <c r="X45" t="s"/>
-      <c r="Y45" t="s"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>2884</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>292</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>248</v>
+        <v>293</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>249</v>
+        <v>294</v>
       </c>
       <c r="J46" t="s">
-        <v>250</v>
+        <v>295</v>
       </c>
       <c r="K46" t="s"/>
       <c r="L46" t="s"/>
@@ -4220,10 +4478,10 @@
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>238</v>
+        <v>279</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -4244,51 +4502,52 @@
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s"/>
-      <c r="X46" t="s"/>
-      <c r="Y46" t="s"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>2884</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>296</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>251</v>
+        <v>297</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>252</v>
+        <v>298</v>
       </c>
       <c r="J47" t="s">
-        <v>253</v>
+        <v>299</v>
       </c>
       <c r="K47" t="s">
-        <v>254</v>
+        <v>300</v>
       </c>
       <c r="L47" t="s">
-        <v>255</v>
+        <v>301</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>256</v>
+        <v>302</v>
       </c>
       <c r="O47" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="P47" t="n">
         <v>4</v>
@@ -4310,50 +4569,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>255</v>
+        <v>301</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>2884</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>303</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>257</v>
+        <v>304</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>258</v>
+        <v>305</v>
       </c>
       <c r="J48" t="s">
-        <v>259</v>
+        <v>306</v>
       </c>
       <c r="K48" t="s">
-        <v>260</v>
+        <v>307</v>
       </c>
       <c r="L48" t="s">
-        <v>261</v>
+        <v>308</v>
       </c>
       <c r="M48" t="n">
         <v>2</v>
       </c>
       <c r="N48" t="s">
-        <v>256</v>
+        <v>302</v>
       </c>
       <c r="O48" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="P48" t="n">
         <v>2</v>
@@ -4377,50 +4640,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>261</v>
+        <v>308</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>2884</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>309</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>262</v>
+        <v>310</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>263</v>
+        <v>311</v>
       </c>
       <c r="J49" t="s">
-        <v>264</v>
+        <v>312</v>
       </c>
       <c r="K49" t="s">
-        <v>265</v>
+        <v>313</v>
       </c>
       <c r="L49" t="s">
-        <v>266</v>
+        <v>314</v>
       </c>
       <c r="M49" t="n">
         <v>3</v>
       </c>
       <c r="N49" t="s">
-        <v>256</v>
+        <v>302</v>
       </c>
       <c r="O49" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="P49" t="n">
         <v>4</v>
@@ -4444,41 +4711,45 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>266</v>
+        <v>314</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>2884</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>315</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>267</v>
+        <v>316</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>268</v>
+        <v>317</v>
       </c>
       <c r="J50" t="s">
-        <v>269</v>
+        <v>318</v>
       </c>
       <c r="K50" t="s">
-        <v>270</v>
+        <v>319</v>
       </c>
       <c r="L50" t="s">
-        <v>271</v>
+        <v>320</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
@@ -4507,50 +4778,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>271</v>
+        <v>320</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>2884</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>321</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>272</v>
+        <v>322</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>273</v>
+        <v>323</v>
       </c>
       <c r="J51" t="s">
-        <v>274</v>
+        <v>324</v>
       </c>
       <c r="K51" t="s">
-        <v>275</v>
+        <v>325</v>
       </c>
       <c r="L51" t="s">
-        <v>276</v>
+        <v>326</v>
       </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
       <c r="N51" t="s">
-        <v>277</v>
+        <v>327</v>
       </c>
       <c r="O51" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P51" t="n">
         <v>1</v>
@@ -4574,50 +4849,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>278</v>
+        <v>328</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>2884</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>329</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>279</v>
+        <v>330</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>280</v>
+        <v>331</v>
       </c>
       <c r="J52" t="s">
-        <v>281</v>
+        <v>332</v>
       </c>
       <c r="K52" t="s">
-        <v>282</v>
+        <v>333</v>
       </c>
       <c r="L52" t="s">
-        <v>283</v>
+        <v>334</v>
       </c>
       <c r="M52" t="n">
         <v>3</v>
       </c>
       <c r="N52" t="s">
-        <v>284</v>
+        <v>335</v>
       </c>
       <c r="O52" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
@@ -4631,50 +4910,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>285</v>
+        <v>336</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>2884</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>337</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>286</v>
+        <v>338</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>287</v>
+        <v>339</v>
       </c>
       <c r="J53" t="s">
-        <v>288</v>
+        <v>340</v>
       </c>
       <c r="K53" t="s">
-        <v>289</v>
+        <v>341</v>
       </c>
       <c r="L53" t="s">
-        <v>290</v>
+        <v>342</v>
       </c>
       <c r="M53" t="n">
         <v>2</v>
       </c>
       <c r="N53" t="s">
-        <v>291</v>
+        <v>343</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P53" t="n">
         <v>2</v>
@@ -4698,50 +4981,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>292</v>
+        <v>344</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>2884</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>345</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>293</v>
+        <v>346</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>294</v>
+        <v>347</v>
       </c>
       <c r="J54" t="s">
-        <v>295</v>
+        <v>348</v>
       </c>
       <c r="K54" t="s">
-        <v>296</v>
+        <v>349</v>
       </c>
       <c r="L54" t="s">
-        <v>297</v>
+        <v>350</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>298</v>
+        <v>351</v>
       </c>
       <c r="O54" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P54" t="n">
         <v>3</v>
@@ -4763,50 +5050,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>299</v>
+        <v>352</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>2884</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>353</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>300</v>
+        <v>354</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>301</v>
+        <v>355</v>
       </c>
       <c r="J55" t="s">
-        <v>302</v>
+        <v>356</v>
       </c>
       <c r="K55" t="s">
-        <v>303</v>
+        <v>357</v>
       </c>
       <c r="L55" t="s">
-        <v>304</v>
+        <v>358</v>
       </c>
       <c r="M55" t="n">
         <v>2</v>
       </c>
       <c r="N55" t="s">
-        <v>305</v>
+        <v>359</v>
       </c>
       <c r="O55" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P55" t="n">
         <v>2</v>
@@ -4828,7 +5119,7 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>306</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
